--- a/secteur-action-publique/justice/regions/barometre-resultats-justice-regions-detail.xlsx
+++ b/secteur-action-publique/justice/regions/barometre-resultats-justice-regions-detail.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="87">
   <si>
     <t>mesure</t>
   </si>
@@ -72,16 +72,22 @@
     <t>Guadeloupe</t>
   </si>
   <si>
+    <t>2020-03-31</t>
+  </si>
+  <si>
+    <t>4.0</t>
+  </si>
+  <si>
+    <t>% de détenus</t>
+  </si>
+  <si>
     <t>2021-03-31</t>
   </si>
   <si>
-    <t>16.0</t>
-  </si>
-  <si>
-    <t>% de détenus</t>
-  </si>
-  <si>
-    <t>Postes de travail d'intérêt général proposés en tant que peine</t>
+    <t>8.0</t>
+  </si>
+  <si>
+    <t>Postes de travail d’intérêt général proposés sur l’ensemble du territoire national en tant que peine</t>
   </si>
   <si>
     <t>nb-postes-tig</t>
@@ -99,93 +105,96 @@
     <t>Martinique</t>
   </si>
   <si>
+    <t>55.0</t>
+  </si>
+  <si>
+    <t>03</t>
+  </si>
+  <si>
+    <t>Guyane</t>
+  </si>
+  <si>
+    <t>45.0</t>
+  </si>
+  <si>
+    <t>04</t>
+  </si>
+  <si>
+    <t>La Réunion</t>
+  </si>
+  <si>
+    <t>112.0</t>
+  </si>
+  <si>
+    <t>06</t>
+  </si>
+  <si>
+    <t>Mayotte</t>
+  </si>
+  <si>
+    <t>70.0</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>Île-de-France</t>
+  </si>
+  <si>
+    <t>1139.0</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>Centre-Val de Loire</t>
+  </si>
+  <si>
     <t>6.0</t>
   </si>
   <si>
-    <t>55.0</t>
-  </si>
-  <si>
-    <t>03</t>
-  </si>
-  <si>
-    <t>Guyane</t>
+    <t>845.0</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>Bourgogne-Franche-Comté</t>
+  </si>
+  <si>
+    <t>2021-06-30</t>
   </si>
   <si>
     <t>7.0</t>
   </si>
   <si>
-    <t>45.0</t>
-  </si>
-  <si>
-    <t>04</t>
-  </si>
-  <si>
-    <t>La Réunion</t>
+    <t>1207.0</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>Normandie</t>
+  </si>
+  <si>
+    <t>2020-06-30</t>
+  </si>
+  <si>
+    <t>9.0</t>
+  </si>
+  <si>
+    <t>1289.0</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>Hauts-de-France</t>
   </si>
   <si>
     <t>14.0</t>
   </si>
   <si>
-    <t>112.0</t>
-  </si>
-  <si>
-    <t>06</t>
-  </si>
-  <si>
-    <t>Mayotte</t>
-  </si>
-  <si>
-    <t>4.0</t>
-  </si>
-  <si>
-    <t>70.0</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>Île-de-France</t>
-  </si>
-  <si>
-    <t>8.0</t>
-  </si>
-  <si>
-    <t>1139.0</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>Centre-Val de Loire</t>
-  </si>
-  <si>
-    <t>845.0</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>Bourgogne-Franche-Comté</t>
-  </si>
-  <si>
-    <t>1207.0</t>
-  </si>
-  <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>Normandie</t>
-  </si>
-  <si>
-    <t>1289.0</t>
-  </si>
-  <si>
-    <t>32</t>
-  </si>
-  <si>
-    <t>Hauts-de-France</t>
-  </si>
-  <si>
     <t>1610.0</t>
   </si>
   <si>
@@ -207,12 +216,36 @@
     <t>980.0</t>
   </si>
   <si>
+    <t>Simplifier l’accès à l’aide juridictionnelle</t>
+  </si>
+  <si>
+    <t>Nombre de demandes d'aide juridictionnelle formulées par voie dématérialisée</t>
+  </si>
+  <si>
+    <t>nb-aide-juridictionnelle-dematerialisee</t>
+  </si>
+  <si>
     <t>53</t>
   </si>
   <si>
     <t>Bretagne</t>
   </si>
   <si>
+    <t>2021-04-30</t>
+  </si>
+  <si>
+    <t>0.2</t>
+  </si>
+  <si>
+    <t>% des demandes *</t>
+  </si>
+  <si>
+    <t>2021-05-31</t>
+  </si>
+  <si>
+    <t>2.8</t>
+  </si>
+  <si>
     <t>1355.0</t>
   </si>
   <si>
@@ -231,6 +264,9 @@
     <t>Occitanie</t>
   </si>
   <si>
+    <t>10.0</t>
+  </si>
+  <si>
     <t>1870.0</t>
   </si>
   <si>
@@ -250,6 +286,12 @@
   </si>
   <si>
     <t>985.0</t>
+  </si>
+  <si>
+    <t>94</t>
+  </si>
+  <si>
+    <t>Corse</t>
   </si>
 </sst>
 </file>
@@ -581,7 +623,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -644,10 +686,10 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
         <v>11</v>
@@ -656,13 +698,39 @@
         <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
         <v>18</v>
       </c>
-      <c r="H3" t="s">
+      <c r="C4" t="s">
         <v>19</v>
+      </c>
+      <c r="D4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -672,7 +740,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -709,25 +777,77 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
         <v>51</v>
       </c>
-      <c r="H2" t="s">
+      <c r="E3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G3" t="s">
+        <v>53</v>
+      </c>
+      <c r="H3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" t="s">
         <v>19</v>
+      </c>
+      <c r="D4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E4" t="s">
+        <v>52</v>
+      </c>
+      <c r="F4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" t="s">
+        <v>54</v>
+      </c>
+      <c r="H4" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -737,7 +857,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -774,25 +894,77 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="E2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G2" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="H2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" t="s">
         <v>19</v>
+      </c>
+      <c r="D4" t="s">
+        <v>55</v>
+      </c>
+      <c r="E4" t="s">
+        <v>56</v>
+      </c>
+      <c r="F4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" t="s">
+        <v>57</v>
+      </c>
+      <c r="H4" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -802,7 +974,7 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -839,25 +1011,77 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="F2" t="s">
         <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="H2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
+        <v>49</v>
+      </c>
+      <c r="H3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" t="s">
         <v>19</v>
+      </c>
+      <c r="D4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E4" t="s">
+        <v>59</v>
+      </c>
+      <c r="F4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" t="s">
+        <v>60</v>
+      </c>
+      <c r="H4" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -867,7 +1091,7 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -901,28 +1125,106 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>61</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>62</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
+        <v>63</v>
       </c>
       <c r="D2" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="E2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="F2" t="s">
-        <v>13</v>
+        <v>66</v>
       </c>
       <c r="G2" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="H2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E3" t="s">
+        <v>65</v>
+      </c>
+      <c r="F3" t="s">
+        <v>69</v>
+      </c>
+      <c r="G3" t="s">
+        <v>70</v>
+      </c>
+      <c r="H3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E4" t="s">
+        <v>65</v>
+      </c>
+      <c r="F4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" t="s">
+        <v>49</v>
+      </c>
+      <c r="H4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" t="s">
         <v>19</v>
+      </c>
+      <c r="D5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E5" t="s">
+        <v>65</v>
+      </c>
+      <c r="F5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" t="s">
+        <v>71</v>
+      </c>
+      <c r="H5" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -932,7 +1234,7 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -969,25 +1271,77 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="E2" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="F2" t="s">
         <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="H2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E3" t="s">
+        <v>73</v>
+      </c>
+      <c r="F3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
+        <v>53</v>
+      </c>
+      <c r="H3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" t="s">
         <v>19</v>
+      </c>
+      <c r="D4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E4" t="s">
+        <v>73</v>
+      </c>
+      <c r="F4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" t="s">
+        <v>74</v>
+      </c>
+      <c r="H4" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -997,7 +1351,7 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1034,25 +1388,77 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="E2" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="F2" t="s">
         <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="H2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E3" t="s">
+        <v>76</v>
+      </c>
+      <c r="F3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
+        <v>77</v>
+      </c>
+      <c r="H3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" t="s">
         <v>19</v>
+      </c>
+      <c r="D4" t="s">
+        <v>75</v>
+      </c>
+      <c r="E4" t="s">
+        <v>76</v>
+      </c>
+      <c r="F4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" t="s">
+        <v>78</v>
+      </c>
+      <c r="H4" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -1061,148 +1467,6 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" t="s">
-        <v>67</v>
-      </c>
-      <c r="E2" t="s">
-        <v>68</v>
-      </c>
-      <c r="F2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" t="s">
-        <v>69</v>
-      </c>
-      <c r="H2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E2" t="s">
-        <v>71</v>
-      </c>
-      <c r="F2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" t="s">
-        <v>72</v>
-      </c>
-      <c r="H2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H3"/>
   <sheetViews>
@@ -1247,16 +1511,16 @@
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>79</v>
       </c>
       <c r="E2" t="s">
-        <v>21</v>
+        <v>80</v>
       </c>
       <c r="F2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="H2" t="s">
         <v>15</v>
@@ -1267,25 +1531,25 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>79</v>
       </c>
       <c r="E3" t="s">
+        <v>80</v>
+      </c>
+      <c r="F3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
+        <v>81</v>
+      </c>
+      <c r="H3" t="s">
         <v>21</v>
-      </c>
-      <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H3" t="s">
-        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -1293,7 +1557,124 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" t="s">
+        <v>49</v>
+      </c>
+      <c r="H2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E3" t="s">
+        <v>83</v>
+      </c>
+      <c r="F3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
+        <v>77</v>
+      </c>
+      <c r="H3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" t="s">
+        <v>82</v>
+      </c>
+      <c r="E4" t="s">
+        <v>83</v>
+      </c>
+      <c r="F4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" t="s">
+        <v>84</v>
+      </c>
+      <c r="H4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H3"/>
   <sheetViews>
@@ -1338,16 +1719,16 @@
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>85</v>
       </c>
       <c r="E2" t="s">
-        <v>25</v>
+        <v>86</v>
       </c>
       <c r="F2" t="s">
         <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="H2" t="s">
         <v>15</v>
@@ -1358,25 +1739,259 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E3" t="s">
+        <v>86</v>
+      </c>
+      <c r="F3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
+        <v>77</v>
+      </c>
+      <c r="H3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
         <v>17</v>
       </c>
+      <c r="H3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" t="s">
         <v>25</v>
       </c>
-      <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" t="s">
+      <c r="E4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" t="s">
         <v>27</v>
       </c>
-      <c r="H3" t="s">
-        <v>19</v>
+      <c r="H4" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -1435,10 +2050,10 @@
         <v>29</v>
       </c>
       <c r="F2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G2" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="H2" t="s">
         <v>15</v>
@@ -1449,10 +2064,10 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D3" t="s">
         <v>28</v>
@@ -1461,13 +2076,13 @@
         <v>29</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -1520,16 +2135,16 @@
         <v>10</v>
       </c>
       <c r="D2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" t="s">
         <v>32</v>
       </c>
-      <c r="E2" t="s">
-        <v>33</v>
-      </c>
       <c r="F2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G2" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="H2" t="s">
         <v>15</v>
@@ -1540,25 +2155,25 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" t="s">
         <v>32</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
         <v>33</v>
       </c>
-      <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" t="s">
-        <v>35</v>
-      </c>
       <c r="H3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -1611,16 +2226,16 @@
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G2" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="H2" t="s">
         <v>15</v>
@@ -1631,25 +2246,25 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
         <v>36</v>
       </c>
-      <c r="E3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" t="s">
-        <v>39</v>
-      </c>
       <c r="H3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -1659,7 +2274,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1696,25 +2311,51 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
         <v>40</v>
       </c>
-      <c r="E2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" t="s">
-        <v>42</v>
-      </c>
-      <c r="H2" t="s">
-        <v>19</v>
+      <c r="H3" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -1724,7 +2365,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1761,25 +2402,77 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F3" t="s">
         <v>43</v>
       </c>
-      <c r="E2" t="s">
+      <c r="G3" t="s">
         <v>44</v>
       </c>
-      <c r="F2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="H3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" t="s">
         <v>45</v>
       </c>
-      <c r="H2" t="s">
-        <v>19</v>
+      <c r="H4" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -1789,7 +2482,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1826,10 +2519,10 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
         <v>46</v>
@@ -1838,13 +2531,65 @@
         <v>47</v>
       </c>
       <c r="F2" t="s">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="G2" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="H2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
+        <v>49</v>
+      </c>
+      <c r="H3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" t="s">
         <v>19</v>
+      </c>
+      <c r="D4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" t="s">
+        <v>50</v>
+      </c>
+      <c r="H4" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/secteur-action-publique/justice/regions/barometre-resultats-justice-regions-detail.xlsx
+++ b/secteur-action-publique/justice/regions/barometre-resultats-justice-regions-detail.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="928" uniqueCount="126">
   <si>
     <t>mesure</t>
   </si>
@@ -57,241 +57,358 @@
     <t>unite</t>
   </si>
   <si>
+    <t>Simplifier l’accès à l’aide juridictionnelle</t>
+  </si>
+  <si>
+    <t>Nombre de demandes d'aide juridictionnelle formulées par voie dématérialisée</t>
+  </si>
+  <si>
+    <t>nb-aide-juridictionnelle-dematerialisee</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>Guadeloupe</t>
+  </si>
+  <si>
+    <t>2021-03-31</t>
+  </si>
+  <si>
+    <t>0.0</t>
+  </si>
+  <si>
+    <t>% des demandes *</t>
+  </si>
+  <si>
     <t>Lutter contre la récidive par une meilleure insertion professionnelle des condamnés</t>
   </si>
   <si>
+    <t>Postes de travail d’intérêt général proposés sur l’ensemble du territoire national en tant que peine</t>
+  </si>
+  <si>
+    <t>nb-postes-tig</t>
+  </si>
+  <si>
+    <t>117.0</t>
+  </si>
+  <si>
+    <t>postes</t>
+  </si>
+  <si>
+    <t>2021-09-30</t>
+  </si>
+  <si>
+    <t>139.0</t>
+  </si>
+  <si>
+    <t>2021-11-30</t>
+  </si>
+  <si>
+    <t>137.0</t>
+  </si>
+  <si>
     <t>Taux de personnes détenues ayant bénéficié d'une formation dans l'année</t>
   </si>
   <si>
     <t>tx-detenus-formation</t>
   </si>
   <si>
-    <t>01</t>
-  </si>
-  <si>
-    <t>Guadeloupe</t>
+    <t>2021-06-30</t>
+  </si>
+  <si>
+    <t>3.0</t>
+  </si>
+  <si>
+    <t>% de détenus</t>
+  </si>
+  <si>
+    <t>02</t>
+  </si>
+  <si>
+    <t>Martinique</t>
+  </si>
+  <si>
+    <t>55.0</t>
+  </si>
+  <si>
+    <t>68.0</t>
+  </si>
+  <si>
+    <t>69.0</t>
+  </si>
+  <si>
+    <t>2.0</t>
+  </si>
+  <si>
+    <t>03</t>
+  </si>
+  <si>
+    <t>Guyane</t>
+  </si>
+  <si>
+    <t>45.0</t>
+  </si>
+  <si>
+    <t>73.0</t>
+  </si>
+  <si>
+    <t>81.0</t>
   </si>
   <si>
     <t>2020-03-31</t>
   </si>
   <si>
+    <t>04</t>
+  </si>
+  <si>
+    <t>La Réunion</t>
+  </si>
+  <si>
+    <t>112.0</t>
+  </si>
+  <si>
+    <t>143.0</t>
+  </si>
+  <si>
+    <t>144.0</t>
+  </si>
+  <si>
     <t>4.0</t>
   </si>
   <si>
-    <t>% de détenus</t>
-  </si>
-  <si>
-    <t>2021-03-31</t>
+    <t>06</t>
+  </si>
+  <si>
+    <t>Mayotte</t>
+  </si>
+  <si>
+    <t>70.0</t>
+  </si>
+  <si>
+    <t>63.0</t>
+  </si>
+  <si>
+    <t>61.0</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>Île-de-France</t>
+  </si>
+  <si>
+    <t>1139.0</t>
+  </si>
+  <si>
+    <t>1309.0</t>
+  </si>
+  <si>
+    <t>1360.0</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>Centre-Val de Loire</t>
+  </si>
+  <si>
+    <t>845.0</t>
+  </si>
+  <si>
+    <t>904.0</t>
+  </si>
+  <si>
+    <t>946.0</t>
+  </si>
+  <si>
+    <t>6.0</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>Bourgogne-Franche-Comté</t>
+  </si>
+  <si>
+    <t>1207.0</t>
+  </si>
+  <si>
+    <t>1482.0</t>
+  </si>
+  <si>
+    <t>1541.0</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>Normandie</t>
+  </si>
+  <si>
+    <t>1289.0</t>
+  </si>
+  <si>
+    <t>1305.0</t>
+  </si>
+  <si>
+    <t>1303.0</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>Hauts-de-France</t>
+  </si>
+  <si>
+    <t>1610.0</t>
+  </si>
+  <si>
+    <t>1872.0</t>
+  </si>
+  <si>
+    <t>1925.0</t>
+  </si>
+  <si>
+    <t>9.0</t>
+  </si>
+  <si>
+    <t>2021-07-31</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>Grand Est</t>
+  </si>
+  <si>
+    <t>2474.0</t>
+  </si>
+  <si>
+    <t>2509.0</t>
+  </si>
+  <si>
+    <t>2593.0</t>
+  </si>
+  <si>
+    <t>5.0</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>Pays de la Loire</t>
+  </si>
+  <si>
+    <t>980.0</t>
+  </si>
+  <si>
+    <t>1287.0</t>
+  </si>
+  <si>
+    <t>1291.0</t>
+  </si>
+  <si>
+    <t>11.0</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>Bretagne</t>
+  </si>
+  <si>
+    <t>1355.0</t>
+  </si>
+  <si>
+    <t>1351.0</t>
+  </si>
+  <si>
+    <t>1336.0</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>Nouvelle-Aquitaine</t>
+  </si>
+  <si>
+    <t>2635.0</t>
+  </si>
+  <si>
+    <t>2764.0</t>
+  </si>
+  <si>
+    <t>2770.0</t>
+  </si>
+  <si>
+    <t>10.0</t>
+  </si>
+  <si>
+    <t>76</t>
+  </si>
+  <si>
+    <t>Occitanie</t>
+  </si>
+  <si>
+    <t>1870.0</t>
+  </si>
+  <si>
+    <t>1906.0</t>
+  </si>
+  <si>
+    <t>2077.0</t>
+  </si>
+  <si>
+    <t>84</t>
+  </si>
+  <si>
+    <t>Auvergne-Rhône-Alpes</t>
+  </si>
+  <si>
+    <t>2113.0</t>
+  </si>
+  <si>
+    <t>2135.0</t>
+  </si>
+  <si>
+    <t>2197.0</t>
+  </si>
+  <si>
+    <t>7.0</t>
+  </si>
+  <si>
+    <t>2022-10-31</t>
+  </si>
+  <si>
+    <t>93</t>
+  </si>
+  <si>
+    <t>Provence-Alpes-Côte d'Azur</t>
+  </si>
+  <si>
+    <t>985.0</t>
+  </si>
+  <si>
+    <t>1005.0</t>
+  </si>
+  <si>
+    <t>1027.0</t>
   </si>
   <si>
     <t>8.0</t>
   </si>
   <si>
-    <t>Postes de travail d’intérêt général proposés sur l’ensemble du territoire national en tant que peine</t>
-  </si>
-  <si>
-    <t>nb-postes-tig</t>
-  </si>
-  <si>
-    <t>117.0</t>
-  </si>
-  <si>
-    <t>postes</t>
-  </si>
-  <si>
-    <t>02</t>
-  </si>
-  <si>
-    <t>Martinique</t>
-  </si>
-  <si>
-    <t>55.0</t>
-  </si>
-  <si>
-    <t>03</t>
-  </si>
-  <si>
-    <t>Guyane</t>
-  </si>
-  <si>
-    <t>45.0</t>
-  </si>
-  <si>
-    <t>04</t>
-  </si>
-  <si>
-    <t>La Réunion</t>
-  </si>
-  <si>
-    <t>112.0</t>
-  </si>
-  <si>
-    <t>06</t>
-  </si>
-  <si>
-    <t>Mayotte</t>
-  </si>
-  <si>
-    <t>70.0</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>Île-de-France</t>
-  </si>
-  <si>
-    <t>1139.0</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>Centre-Val de Loire</t>
-  </si>
-  <si>
-    <t>6.0</t>
-  </si>
-  <si>
-    <t>845.0</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>Bourgogne-Franche-Comté</t>
-  </si>
-  <si>
-    <t>2021-06-30</t>
-  </si>
-  <si>
-    <t>7.0</t>
-  </si>
-  <si>
-    <t>1207.0</t>
-  </si>
-  <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>Normandie</t>
-  </si>
-  <si>
-    <t>2020-06-30</t>
-  </si>
-  <si>
-    <t>9.0</t>
-  </si>
-  <si>
-    <t>1289.0</t>
-  </si>
-  <si>
-    <t>32</t>
-  </si>
-  <si>
-    <t>Hauts-de-France</t>
-  </si>
-  <si>
-    <t>14.0</t>
-  </si>
-  <si>
-    <t>1610.0</t>
-  </si>
-  <si>
-    <t>44</t>
-  </si>
-  <si>
-    <t>Grand Est</t>
-  </si>
-  <si>
-    <t>2474.0</t>
-  </si>
-  <si>
-    <t>52</t>
-  </si>
-  <si>
-    <t>Pays de la Loire</t>
-  </si>
-  <si>
-    <t>980.0</t>
-  </si>
-  <si>
-    <t>Simplifier l’accès à l’aide juridictionnelle</t>
-  </si>
-  <si>
-    <t>Nombre de demandes d'aide juridictionnelle formulées par voie dématérialisée</t>
-  </si>
-  <si>
-    <t>nb-aide-juridictionnelle-dematerialisee</t>
-  </si>
-  <si>
-    <t>53</t>
-  </si>
-  <si>
-    <t>Bretagne</t>
-  </si>
-  <si>
-    <t>2021-04-30</t>
-  </si>
-  <si>
-    <t>0.2</t>
-  </si>
-  <si>
-    <t>% des demandes *</t>
-  </si>
-  <si>
-    <t>2021-05-31</t>
-  </si>
-  <si>
-    <t>2.8</t>
-  </si>
-  <si>
-    <t>1355.0</t>
-  </si>
-  <si>
-    <t>75</t>
-  </si>
-  <si>
-    <t>Nouvelle-Aquitaine</t>
-  </si>
-  <si>
-    <t>2635.0</t>
-  </si>
-  <si>
-    <t>76</t>
-  </si>
-  <si>
-    <t>Occitanie</t>
-  </si>
-  <si>
-    <t>10.0</t>
-  </si>
-  <si>
-    <t>1870.0</t>
-  </si>
-  <si>
-    <t>84</t>
-  </si>
-  <si>
-    <t>Auvergne-Rhône-Alpes</t>
-  </si>
-  <si>
-    <t>2113.0</t>
-  </si>
-  <si>
-    <t>93</t>
-  </si>
-  <si>
-    <t>Provence-Alpes-Côte d'Azur</t>
-  </si>
-  <si>
-    <t>985.0</t>
-  </si>
-  <si>
     <t>94</t>
   </si>
   <si>
     <t>Corse</t>
+  </si>
+  <si>
+    <t>282.0</t>
+  </si>
+  <si>
+    <t>302.0</t>
   </si>
 </sst>
 </file>
@@ -623,7 +740,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -683,13 +800,13 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="D3" t="s">
         <v>11</v>
@@ -698,24 +815,24 @@
         <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H3" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D4" t="s">
         <v>11</v>
@@ -724,13 +841,91 @@
         <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="G4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6" t="s">
+        <v>28</v>
+      </c>
+      <c r="H6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" t="s">
         <v>21</v>
+      </c>
+      <c r="G7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H7" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -740,7 +935,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -774,80 +969,158 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>51</v>
+        <v>74</v>
       </c>
       <c r="E2" t="s">
-        <v>52</v>
+        <v>75</v>
       </c>
       <c r="F2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>53</v>
+        <v>76</v>
       </c>
       <c r="H2" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="D3" t="s">
-        <v>51</v>
+        <v>74</v>
       </c>
       <c r="E3" t="s">
-        <v>52</v>
+        <v>75</v>
       </c>
       <c r="F3" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="G3" t="s">
-        <v>53</v>
+        <v>77</v>
       </c>
       <c r="H3" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D4" t="s">
-        <v>51</v>
+        <v>74</v>
       </c>
       <c r="E4" t="s">
-        <v>52</v>
+        <v>75</v>
       </c>
       <c r="F4" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="G4" t="s">
-        <v>54</v>
+        <v>78</v>
       </c>
       <c r="H4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
+        <v>74</v>
+      </c>
+      <c r="E5" t="s">
+        <v>75</v>
+      </c>
+      <c r="F5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" t="s">
+        <v>79</v>
+      </c>
+      <c r="H5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
+        <v>74</v>
+      </c>
+      <c r="E6" t="s">
+        <v>75</v>
+      </c>
+      <c r="F6" t="s">
+        <v>80</v>
+      </c>
+      <c r="G6" t="s">
+        <v>79</v>
+      </c>
+      <c r="H6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
+        <v>74</v>
+      </c>
+      <c r="E7" t="s">
+        <v>75</v>
+      </c>
+      <c r="F7" t="s">
         <v>21</v>
+      </c>
+      <c r="G7" t="s">
+        <v>79</v>
+      </c>
+      <c r="H7" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -857,7 +1130,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -891,80 +1164,132 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>55</v>
+        <v>81</v>
       </c>
       <c r="E2" t="s">
-        <v>56</v>
+        <v>82</v>
       </c>
       <c r="F2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>44</v>
+        <v>83</v>
       </c>
       <c r="H2" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="D3" t="s">
-        <v>55</v>
+        <v>81</v>
       </c>
       <c r="E3" t="s">
-        <v>56</v>
+        <v>82</v>
       </c>
       <c r="F3" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="G3" t="s">
-        <v>44</v>
+        <v>84</v>
       </c>
       <c r="H3" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D4" t="s">
-        <v>55</v>
+        <v>81</v>
       </c>
       <c r="E4" t="s">
-        <v>56</v>
+        <v>82</v>
       </c>
       <c r="F4" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="G4" t="s">
-        <v>57</v>
+        <v>85</v>
       </c>
       <c r="H4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
+        <v>81</v>
+      </c>
+      <c r="E5" t="s">
+        <v>82</v>
+      </c>
+      <c r="F5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" t="s">
+        <v>86</v>
+      </c>
+      <c r="H5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
+        <v>81</v>
+      </c>
+      <c r="E6" t="s">
+        <v>82</v>
+      </c>
+      <c r="F6" t="s">
         <v>21</v>
+      </c>
+      <c r="G6" t="s">
+        <v>86</v>
+      </c>
+      <c r="H6" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -974,7 +1299,7 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1008,80 +1333,132 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>58</v>
+        <v>87</v>
       </c>
       <c r="E2" t="s">
-        <v>59</v>
+        <v>88</v>
       </c>
       <c r="F2" t="s">
         <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>39</v>
+        <v>89</v>
       </c>
       <c r="H2" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="D3" t="s">
-        <v>58</v>
+        <v>87</v>
       </c>
       <c r="E3" t="s">
-        <v>59</v>
+        <v>88</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="G3" t="s">
-        <v>49</v>
+        <v>90</v>
       </c>
       <c r="H3" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D4" t="s">
-        <v>58</v>
+        <v>87</v>
       </c>
       <c r="E4" t="s">
-        <v>59</v>
+        <v>88</v>
       </c>
       <c r="F4" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="G4" t="s">
-        <v>60</v>
+        <v>91</v>
       </c>
       <c r="H4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
+        <v>87</v>
+      </c>
+      <c r="E5" t="s">
+        <v>88</v>
+      </c>
+      <c r="F5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" t="s">
+        <v>92</v>
+      </c>
+      <c r="H5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
+        <v>87</v>
+      </c>
+      <c r="E6" t="s">
+        <v>88</v>
+      </c>
+      <c r="F6" t="s">
         <v>21</v>
+      </c>
+      <c r="G6" t="s">
+        <v>92</v>
+      </c>
+      <c r="H6" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -1090,6 +1467,877 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" t="s">
+        <v>95</v>
+      </c>
+      <c r="H2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" t="s">
+        <v>93</v>
+      </c>
+      <c r="E3" t="s">
+        <v>94</v>
+      </c>
+      <c r="F3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" t="s">
+        <v>96</v>
+      </c>
+      <c r="H3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" t="s">
+        <v>93</v>
+      </c>
+      <c r="E4" t="s">
+        <v>94</v>
+      </c>
+      <c r="F4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" t="s">
+        <v>97</v>
+      </c>
+      <c r="H4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
+        <v>93</v>
+      </c>
+      <c r="E5" t="s">
+        <v>94</v>
+      </c>
+      <c r="F5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" t="s">
+        <v>63</v>
+      </c>
+      <c r="H5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
+        <v>93</v>
+      </c>
+      <c r="E6" t="s">
+        <v>94</v>
+      </c>
+      <c r="F6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" t="s">
+        <v>63</v>
+      </c>
+      <c r="H6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" t="s">
+        <v>100</v>
+      </c>
+      <c r="H2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E3" t="s">
+        <v>99</v>
+      </c>
+      <c r="F3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" t="s">
+        <v>101</v>
+      </c>
+      <c r="H3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" t="s">
+        <v>98</v>
+      </c>
+      <c r="E4" t="s">
+        <v>99</v>
+      </c>
+      <c r="F4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" t="s">
+        <v>102</v>
+      </c>
+      <c r="H4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
+        <v>98</v>
+      </c>
+      <c r="E5" t="s">
+        <v>99</v>
+      </c>
+      <c r="F5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" t="s">
+        <v>103</v>
+      </c>
+      <c r="H5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
+        <v>98</v>
+      </c>
+      <c r="E6" t="s">
+        <v>99</v>
+      </c>
+      <c r="F6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" t="s">
+        <v>103</v>
+      </c>
+      <c r="H6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" t="s">
+        <v>106</v>
+      </c>
+      <c r="H2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" t="s">
+        <v>104</v>
+      </c>
+      <c r="E3" t="s">
+        <v>105</v>
+      </c>
+      <c r="F3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" t="s">
+        <v>107</v>
+      </c>
+      <c r="H3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" t="s">
+        <v>104</v>
+      </c>
+      <c r="E4" t="s">
+        <v>105</v>
+      </c>
+      <c r="F4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" t="s">
+        <v>108</v>
+      </c>
+      <c r="H4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
+        <v>104</v>
+      </c>
+      <c r="E5" t="s">
+        <v>105</v>
+      </c>
+      <c r="F5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" t="s">
+        <v>63</v>
+      </c>
+      <c r="H5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
+        <v>104</v>
+      </c>
+      <c r="E6" t="s">
+        <v>105</v>
+      </c>
+      <c r="F6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" t="s">
+        <v>63</v>
+      </c>
+      <c r="H6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E2" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" t="s">
+        <v>111</v>
+      </c>
+      <c r="H2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" t="s">
+        <v>109</v>
+      </c>
+      <c r="E3" t="s">
+        <v>110</v>
+      </c>
+      <c r="F3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" t="s">
+        <v>112</v>
+      </c>
+      <c r="H3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" t="s">
+        <v>109</v>
+      </c>
+      <c r="E4" t="s">
+        <v>110</v>
+      </c>
+      <c r="F4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" t="s">
+        <v>113</v>
+      </c>
+      <c r="H4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
+        <v>109</v>
+      </c>
+      <c r="E5" t="s">
+        <v>110</v>
+      </c>
+      <c r="F5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" t="s">
+        <v>114</v>
+      </c>
+      <c r="H5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
+        <v>109</v>
+      </c>
+      <c r="E6" t="s">
+        <v>110</v>
+      </c>
+      <c r="F6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" t="s">
+        <v>114</v>
+      </c>
+      <c r="H6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
+        <v>109</v>
+      </c>
+      <c r="E7" t="s">
+        <v>110</v>
+      </c>
+      <c r="F7" t="s">
+        <v>115</v>
+      </c>
+      <c r="G7" t="s">
+        <v>92</v>
+      </c>
+      <c r="H7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E2" t="s">
+        <v>117</v>
+      </c>
+      <c r="F2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" t="s">
+        <v>118</v>
+      </c>
+      <c r="H2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" t="s">
+        <v>116</v>
+      </c>
+      <c r="E3" t="s">
+        <v>117</v>
+      </c>
+      <c r="F3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" t="s">
+        <v>119</v>
+      </c>
+      <c r="H3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" t="s">
+        <v>116</v>
+      </c>
+      <c r="E4" t="s">
+        <v>117</v>
+      </c>
+      <c r="F4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" t="s">
+        <v>120</v>
+      </c>
+      <c r="H4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
+        <v>116</v>
+      </c>
+      <c r="E5" t="s">
+        <v>117</v>
+      </c>
+      <c r="F5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" t="s">
+        <v>121</v>
+      </c>
+      <c r="H5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
+        <v>116</v>
+      </c>
+      <c r="E6" t="s">
+        <v>117</v>
+      </c>
+      <c r="F6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" t="s">
+        <v>121</v>
+      </c>
+      <c r="H6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H5"/>
   <sheetViews>
@@ -1125,106 +2373,106 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>61</v>
+        <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>62</v>
+        <v>17</v>
       </c>
       <c r="C2" t="s">
-        <v>63</v>
+        <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>64</v>
+        <v>122</v>
       </c>
       <c r="E2" t="s">
-        <v>65</v>
+        <v>123</v>
       </c>
       <c r="F2" t="s">
-        <v>66</v>
+        <v>21</v>
       </c>
       <c r="G2" t="s">
-        <v>67</v>
+        <v>124</v>
       </c>
       <c r="H2" t="s">
-        <v>68</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>61</v>
+        <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>62</v>
+        <v>17</v>
       </c>
       <c r="C3" t="s">
-        <v>63</v>
+        <v>18</v>
       </c>
       <c r="D3" t="s">
-        <v>64</v>
+        <v>122</v>
       </c>
       <c r="E3" t="s">
-        <v>65</v>
+        <v>123</v>
       </c>
       <c r="F3" t="s">
-        <v>69</v>
+        <v>23</v>
       </c>
       <c r="G3" t="s">
-        <v>70</v>
+        <v>125</v>
       </c>
       <c r="H3" t="s">
-        <v>68</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>64</v>
+        <v>122</v>
       </c>
       <c r="E4" t="s">
-        <v>65</v>
+        <v>123</v>
       </c>
       <c r="F4" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="G4" t="s">
-        <v>49</v>
+        <v>79</v>
       </c>
       <c r="H4" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>64</v>
+        <v>122</v>
       </c>
       <c r="E5" t="s">
-        <v>65</v>
+        <v>123</v>
       </c>
       <c r="F5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="G5" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="H5" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -1232,9 +2480,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1277,16 +2525,16 @@
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>72</v>
+        <v>30</v>
       </c>
       <c r="E2" t="s">
-        <v>73</v>
+        <v>31</v>
       </c>
       <c r="F2" t="s">
         <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>53</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
         <v>15</v>
@@ -1294,54 +2542,132 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="D3" t="s">
-        <v>72</v>
+        <v>30</v>
       </c>
       <c r="E3" t="s">
-        <v>73</v>
+        <v>31</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G3" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="H3" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D4" t="s">
-        <v>72</v>
+        <v>30</v>
       </c>
       <c r="E4" t="s">
-        <v>73</v>
+        <v>31</v>
       </c>
       <c r="F4" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="G4" t="s">
-        <v>74</v>
+        <v>33</v>
       </c>
       <c r="H4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" t="s">
+        <v>34</v>
+      </c>
+      <c r="H5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6" t="s">
+        <v>35</v>
+      </c>
+      <c r="H6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" t="s">
         <v>21</v>
+      </c>
+      <c r="G7" t="s">
+        <v>35</v>
+      </c>
+      <c r="H7" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -1349,9 +2675,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1394,16 +2720,16 @@
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>75</v>
+        <v>36</v>
       </c>
       <c r="E2" t="s">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="F2" t="s">
         <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>77</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
         <v>15</v>
@@ -1411,54 +2737,184 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="D3" t="s">
-        <v>75</v>
+        <v>36</v>
       </c>
       <c r="E3" t="s">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G3" t="s">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="H3" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D4" t="s">
-        <v>75</v>
+        <v>36</v>
       </c>
       <c r="E4" t="s">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="F4" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="G4" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="H4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" t="s">
+        <v>40</v>
+      </c>
+      <c r="H5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" t="s">
+        <v>41</v>
+      </c>
+      <c r="G6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G8" t="s">
+        <v>14</v>
+      </c>
+      <c r="H8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" t="s">
+        <v>37</v>
+      </c>
+      <c r="F9" t="s">
         <v>21</v>
+      </c>
+      <c r="G9" t="s">
+        <v>14</v>
+      </c>
+      <c r="H9" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -1466,9 +2922,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1511,16 +2967,16 @@
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>79</v>
+        <v>42</v>
       </c>
       <c r="E2" t="s">
-        <v>80</v>
+        <v>43</v>
       </c>
       <c r="F2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
         <v>15</v>
@@ -1528,28 +2984,132 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D3" t="s">
-        <v>79</v>
+        <v>42</v>
       </c>
       <c r="E3" t="s">
-        <v>80</v>
+        <v>43</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G3" t="s">
-        <v>81</v>
+        <v>44</v>
       </c>
       <c r="H3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" t="s">
         <v>21</v>
+      </c>
+      <c r="G4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6" t="s">
+        <v>47</v>
+      </c>
+      <c r="H6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" t="s">
+        <v>47</v>
+      </c>
+      <c r="H7" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -1557,9 +3117,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1602,16 +3162,16 @@
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>82</v>
+        <v>48</v>
       </c>
       <c r="E2" t="s">
-        <v>83</v>
+        <v>49</v>
       </c>
       <c r="F2" t="s">
         <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>49</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
         <v>15</v>
@@ -1619,54 +3179,132 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="D3" t="s">
-        <v>82</v>
+        <v>48</v>
       </c>
       <c r="E3" t="s">
-        <v>83</v>
+        <v>49</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G3" t="s">
-        <v>77</v>
+        <v>50</v>
       </c>
       <c r="H3" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D4" t="s">
-        <v>82</v>
+        <v>48</v>
       </c>
       <c r="E4" t="s">
-        <v>83</v>
+        <v>49</v>
       </c>
       <c r="F4" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="G4" t="s">
-        <v>84</v>
+        <v>51</v>
       </c>
       <c r="H4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E5" t="s">
+        <v>49</v>
+      </c>
+      <c r="F5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" t="s">
+        <v>52</v>
+      </c>
+      <c r="H5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
+        <v>48</v>
+      </c>
+      <c r="E6" t="s">
+        <v>49</v>
+      </c>
+      <c r="F6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6" t="s">
+        <v>47</v>
+      </c>
+      <c r="H6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F7" t="s">
         <v>21</v>
+      </c>
+      <c r="G7" t="s">
+        <v>47</v>
+      </c>
+      <c r="H7" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -1674,9 +3312,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1710,54 +3348,132 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>85</v>
+        <v>53</v>
       </c>
       <c r="E2" t="s">
-        <v>86</v>
+        <v>54</v>
       </c>
       <c r="F2" t="s">
         <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="H2" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="D3" t="s">
-        <v>85</v>
+        <v>53</v>
       </c>
       <c r="E3" t="s">
-        <v>86</v>
+        <v>54</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="G3" t="s">
-        <v>77</v>
+        <v>56</v>
       </c>
       <c r="H3" t="s">
-        <v>15</v>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E4" t="s">
+        <v>54</v>
+      </c>
+      <c r="F4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" t="s">
+        <v>57</v>
+      </c>
+      <c r="H4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E5" t="s">
+        <v>54</v>
+      </c>
+      <c r="F5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E6" t="s">
+        <v>54</v>
+      </c>
+      <c r="F6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" t="s">
+        <v>28</v>
+      </c>
+      <c r="H6" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -1765,9 +3481,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1801,80 +3517,132 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>58</v>
       </c>
       <c r="E2" t="s">
-        <v>23</v>
+        <v>59</v>
       </c>
       <c r="F2" t="s">
         <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>14</v>
+        <v>60</v>
       </c>
       <c r="H2" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>58</v>
       </c>
       <c r="E3" t="s">
-        <v>23</v>
+        <v>59</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="G3" t="s">
-        <v>17</v>
+        <v>61</v>
       </c>
       <c r="H3" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>58</v>
       </c>
       <c r="E4" t="s">
+        <v>59</v>
+      </c>
+      <c r="F4" t="s">
         <v>23</v>
       </c>
-      <c r="F4" t="s">
-        <v>16</v>
-      </c>
       <c r="G4" t="s">
-        <v>24</v>
+        <v>62</v>
       </c>
       <c r="H4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E5" t="s">
+        <v>59</v>
+      </c>
+      <c r="F5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" t="s">
+        <v>63</v>
+      </c>
+      <c r="H5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E6" t="s">
+        <v>59</v>
+      </c>
+      <c r="F6" t="s">
         <v>21</v>
+      </c>
+      <c r="G6" t="s">
+        <v>63</v>
+      </c>
+      <c r="H6" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -1882,9 +3650,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1918,80 +3686,132 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>64</v>
       </c>
       <c r="E2" t="s">
-        <v>26</v>
+        <v>65</v>
       </c>
       <c r="F2" t="s">
         <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>14</v>
+        <v>66</v>
       </c>
       <c r="H2" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>64</v>
       </c>
       <c r="E3" t="s">
-        <v>26</v>
+        <v>65</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="G3" t="s">
-        <v>17</v>
+        <v>67</v>
       </c>
       <c r="H3" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E4" t="s">
+        <v>65</v>
+      </c>
+      <c r="F4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" t="s">
+        <v>68</v>
+      </c>
+      <c r="H4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s">
         <v>25</v>
       </c>
-      <c r="E4" t="s">
+      <c r="C5" t="s">
         <v>26</v>
       </c>
-      <c r="F4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4" t="s">
+      <c r="D5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E5" t="s">
+        <v>65</v>
+      </c>
+      <c r="F5" t="s">
         <v>27</v>
       </c>
-      <c r="H4" t="s">
+      <c r="G5" t="s">
+        <v>47</v>
+      </c>
+      <c r="H5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E6" t="s">
+        <v>65</v>
+      </c>
+      <c r="F6" t="s">
         <v>21</v>
+      </c>
+      <c r="G6" t="s">
+        <v>47</v>
+      </c>
+      <c r="H6" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -1999,9 +3819,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2035,561 +3855,132 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>28</v>
+        <v>69</v>
       </c>
       <c r="E2" t="s">
-        <v>29</v>
+        <v>70</v>
       </c>
       <c r="F2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>17</v>
+        <v>71</v>
       </c>
       <c r="H2" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D3" t="s">
-        <v>28</v>
+        <v>69</v>
       </c>
       <c r="E3" t="s">
-        <v>29</v>
+        <v>70</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="G3" t="s">
-        <v>30</v>
+        <v>72</v>
       </c>
       <c r="H3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" t="s">
-        <v>33</v>
-      </c>
-      <c r="H3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" t="s">
-        <v>36</v>
-      </c>
-      <c r="H3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" t="s">
-        <v>39</v>
-      </c>
-      <c r="H2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E3" t="s">
-        <v>38</v>
-      </c>
-      <c r="F3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" t="s">
-        <v>40</v>
-      </c>
-      <c r="H3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" t="s">
-        <v>39</v>
-      </c>
-      <c r="H2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E3" t="s">
-        <v>42</v>
-      </c>
-      <c r="F3" t="s">
-        <v>43</v>
-      </c>
-      <c r="G3" t="s">
-        <v>44</v>
-      </c>
-      <c r="H3" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D4" t="s">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="E4" t="s">
-        <v>42</v>
+        <v>70</v>
       </c>
       <c r="F4" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="G4" t="s">
-        <v>45</v>
+        <v>73</v>
       </c>
       <c r="H4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
+        <v>69</v>
+      </c>
+      <c r="E5" t="s">
+        <v>70</v>
+      </c>
+      <c r="F5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" t="s">
+        <v>47</v>
+      </c>
+      <c r="H5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
+        <v>69</v>
+      </c>
+      <c r="E6" t="s">
+        <v>70</v>
+      </c>
+      <c r="F6" t="s">
         <v>21</v>
       </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="G6" t="s">
         <v>47</v>
       </c>
-      <c r="F2" t="s">
-        <v>48</v>
-      </c>
-      <c r="G2" t="s">
-        <v>39</v>
-      </c>
-      <c r="H2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E3" t="s">
-        <v>47</v>
-      </c>
-      <c r="F3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" t="s">
-        <v>49</v>
-      </c>
-      <c r="H3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" t="s">
-        <v>46</v>
-      </c>
-      <c r="E4" t="s">
-        <v>47</v>
-      </c>
-      <c r="F4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4" t="s">
-        <v>50</v>
-      </c>
-      <c r="H4" t="s">
-        <v>21</v>
+      <c r="H6" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/secteur-action-publique/justice/regions/barometre-resultats-justice-regions-detail.xlsx
+++ b/secteur-action-publique/justice/regions/barometre-resultats-justice-regions-detail.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="928" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="142">
   <si>
     <t>mesure</t>
   </si>
@@ -108,6 +108,12 @@
     <t>137.0</t>
   </si>
   <si>
+    <t>2022-01-31</t>
+  </si>
+  <si>
+    <t>173.0</t>
+  </si>
+  <si>
     <t>Taux de personnes détenues ayant bénéficié d'une formation dans l'année</t>
   </si>
   <si>
@@ -156,6 +162,9 @@
     <t>81.0</t>
   </si>
   <si>
+    <t>82.0</t>
+  </si>
+  <si>
     <t>2020-03-31</t>
   </si>
   <si>
@@ -174,6 +183,9 @@
     <t>144.0</t>
   </si>
   <si>
+    <t>149.0</t>
+  </si>
+  <si>
     <t>4.0</t>
   </si>
   <si>
@@ -192,6 +204,9 @@
     <t>61.0</t>
   </si>
   <si>
+    <t>54.0</t>
+  </si>
+  <si>
     <t>11</t>
   </si>
   <si>
@@ -207,6 +222,9 @@
     <t>1360.0</t>
   </si>
   <si>
+    <t>1458.0</t>
+  </si>
+  <si>
     <t>24</t>
   </si>
   <si>
@@ -222,6 +240,9 @@
     <t>946.0</t>
   </si>
   <si>
+    <t>1026.0</t>
+  </si>
+  <si>
     <t>6.0</t>
   </si>
   <si>
@@ -240,6 +261,9 @@
     <t>1541.0</t>
   </si>
   <si>
+    <t>1621.0</t>
+  </si>
+  <si>
     <t>28</t>
   </si>
   <si>
@@ -255,6 +279,9 @@
     <t>1303.0</t>
   </si>
   <si>
+    <t>1333.0</t>
+  </si>
+  <si>
     <t>32</t>
   </si>
   <si>
@@ -270,12 +297,12 @@
     <t>1925.0</t>
   </si>
   <si>
+    <t>1903.0</t>
+  </si>
+  <si>
     <t>9.0</t>
   </si>
   <si>
-    <t>2021-07-31</t>
-  </si>
-  <si>
     <t>44</t>
   </si>
   <si>
@@ -291,6 +318,9 @@
     <t>2593.0</t>
   </si>
   <si>
+    <t>2590.0</t>
+  </si>
+  <si>
     <t>5.0</t>
   </si>
   <si>
@@ -309,6 +339,9 @@
     <t>1291.0</t>
   </si>
   <si>
+    <t>1357.0</t>
+  </si>
+  <si>
     <t>11.0</t>
   </si>
   <si>
@@ -327,6 +360,9 @@
     <t>1336.0</t>
   </si>
   <si>
+    <t>1367.0</t>
+  </si>
+  <si>
     <t>75</t>
   </si>
   <si>
@@ -342,6 +378,9 @@
     <t>2770.0</t>
   </si>
   <si>
+    <t>2816.0</t>
+  </si>
+  <si>
     <t>10.0</t>
   </si>
   <si>
@@ -360,6 +399,9 @@
     <t>2077.0</t>
   </si>
   <si>
+    <t>2277.0</t>
+  </si>
+  <si>
     <t>84</t>
   </si>
   <si>
@@ -375,12 +417,12 @@
     <t>2197.0</t>
   </si>
   <si>
+    <t>2239.0</t>
+  </si>
+  <si>
     <t>7.0</t>
   </si>
   <si>
-    <t>2022-10-31</t>
-  </si>
-  <si>
     <t>93</t>
   </si>
   <si>
@@ -396,6 +438,9 @@
     <t>1027.0</t>
   </si>
   <si>
+    <t>1085.0</t>
+  </si>
+  <si>
     <t>8.0</t>
   </si>
   <si>
@@ -409,6 +454,9 @@
   </si>
   <si>
     <t>302.0</t>
+  </si>
+  <si>
+    <t>303.0</t>
   </si>
 </sst>
 </file>
@@ -740,7 +788,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -881,10 +929,10 @@
         <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="D6" t="s">
         <v>11</v>
@@ -893,13 +941,13 @@
         <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H6" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -907,10 +955,10 @@
         <v>16</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D7" t="s">
         <v>11</v>
@@ -919,13 +967,39 @@
         <v>12</v>
       </c>
       <c r="F7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" t="s">
         <v>21</v>
       </c>
-      <c r="G7" t="s">
-        <v>28</v>
-      </c>
-      <c r="H7" t="s">
-        <v>29</v>
+      <c r="G8" t="s">
+        <v>30</v>
+      </c>
+      <c r="H8" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -978,16 +1052,16 @@
         <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="E2" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="F2" t="s">
         <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="H2" t="s">
         <v>20</v>
@@ -1004,16 +1078,16 @@
         <v>18</v>
       </c>
       <c r="D3" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="E3" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="F3" t="s">
         <v>21</v>
       </c>
       <c r="G3" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="H3" t="s">
         <v>20</v>
@@ -1030,16 +1104,16 @@
         <v>18</v>
       </c>
       <c r="D4" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="E4" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="F4" t="s">
         <v>23</v>
       </c>
       <c r="G4" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H4" t="s">
         <v>20</v>
@@ -1050,25 +1124,25 @@
         <v>16</v>
       </c>
       <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" t="s">
+        <v>83</v>
+      </c>
+      <c r="E5" t="s">
+        <v>84</v>
+      </c>
+      <c r="F5" t="s">
         <v>25</v>
       </c>
-      <c r="C5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" t="s">
-        <v>74</v>
-      </c>
-      <c r="E5" t="s">
-        <v>75</v>
-      </c>
-      <c r="F5" t="s">
-        <v>27</v>
-      </c>
       <c r="G5" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H5" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1076,25 +1150,25 @@
         <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D6" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="E6" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="F6" t="s">
-        <v>80</v>
+        <v>29</v>
       </c>
       <c r="G6" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="H6" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1102,25 +1176,25 @@
         <v>16</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D7" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="E7" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="F7" t="s">
         <v>21</v>
       </c>
       <c r="G7" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="H7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -1130,7 +1204,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1173,16 +1247,16 @@
         <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="E2" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="F2" t="s">
         <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="H2" t="s">
         <v>20</v>
@@ -1199,16 +1273,16 @@
         <v>18</v>
       </c>
       <c r="D3" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="E3" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="F3" t="s">
         <v>21</v>
       </c>
       <c r="G3" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="H3" t="s">
         <v>20</v>
@@ -1225,16 +1299,16 @@
         <v>18</v>
       </c>
       <c r="D4" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="E4" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="F4" t="s">
         <v>23</v>
       </c>
       <c r="G4" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="H4" t="s">
         <v>20</v>
@@ -1245,25 +1319,25 @@
         <v>16</v>
       </c>
       <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" t="s">
+        <v>90</v>
+      </c>
+      <c r="E5" t="s">
+        <v>91</v>
+      </c>
+      <c r="F5" t="s">
         <v>25</v>
       </c>
-      <c r="C5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" t="s">
-        <v>81</v>
-      </c>
-      <c r="E5" t="s">
-        <v>82</v>
-      </c>
-      <c r="F5" t="s">
-        <v>27</v>
-      </c>
       <c r="G5" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="H5" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1271,25 +1345,51 @@
         <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D6" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="E6" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="F6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6" t="s">
+        <v>96</v>
+      </c>
+      <c r="H6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" t="s">
+        <v>90</v>
+      </c>
+      <c r="E7" t="s">
+        <v>91</v>
+      </c>
+      <c r="F7" t="s">
         <v>21</v>
       </c>
-      <c r="G6" t="s">
-        <v>86</v>
-      </c>
-      <c r="H6" t="s">
-        <v>29</v>
+      <c r="G7" t="s">
+        <v>96</v>
+      </c>
+      <c r="H7" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -1299,7 +1399,7 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1342,16 +1442,16 @@
         <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="E2" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="F2" t="s">
         <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="H2" t="s">
         <v>20</v>
@@ -1368,16 +1468,16 @@
         <v>18</v>
       </c>
       <c r="D3" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="E3" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="F3" t="s">
         <v>21</v>
       </c>
       <c r="G3" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="H3" t="s">
         <v>20</v>
@@ -1394,16 +1494,16 @@
         <v>18</v>
       </c>
       <c r="D4" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="E4" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="F4" t="s">
         <v>23</v>
       </c>
       <c r="G4" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="H4" t="s">
         <v>20</v>
@@ -1414,25 +1514,25 @@
         <v>16</v>
       </c>
       <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" t="s">
+        <v>97</v>
+      </c>
+      <c r="E5" t="s">
+        <v>98</v>
+      </c>
+      <c r="F5" t="s">
         <v>25</v>
       </c>
-      <c r="C5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" t="s">
-        <v>87</v>
-      </c>
-      <c r="E5" t="s">
-        <v>88</v>
-      </c>
-      <c r="F5" t="s">
-        <v>27</v>
-      </c>
       <c r="G5" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="H5" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1440,25 +1540,51 @@
         <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D6" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="E6" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="F6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6" t="s">
+        <v>103</v>
+      </c>
+      <c r="H6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" t="s">
+        <v>97</v>
+      </c>
+      <c r="E7" t="s">
+        <v>98</v>
+      </c>
+      <c r="F7" t="s">
         <v>21</v>
       </c>
-      <c r="G6" t="s">
-        <v>92</v>
-      </c>
-      <c r="H6" t="s">
-        <v>29</v>
+      <c r="G7" t="s">
+        <v>103</v>
+      </c>
+      <c r="H7" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -1468,7 +1594,7 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1511,16 +1637,16 @@
         <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="E2" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="F2" t="s">
         <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="H2" t="s">
         <v>20</v>
@@ -1537,16 +1663,16 @@
         <v>18</v>
       </c>
       <c r="D3" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="E3" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="F3" t="s">
         <v>21</v>
       </c>
       <c r="G3" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="H3" t="s">
         <v>20</v>
@@ -1563,16 +1689,16 @@
         <v>18</v>
       </c>
       <c r="D4" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="E4" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="F4" t="s">
         <v>23</v>
       </c>
       <c r="G4" t="s">
-        <v>97</v>
+        <v>108</v>
       </c>
       <c r="H4" t="s">
         <v>20</v>
@@ -1583,25 +1709,25 @@
         <v>16</v>
       </c>
       <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" t="s">
+        <v>104</v>
+      </c>
+      <c r="E5" t="s">
+        <v>105</v>
+      </c>
+      <c r="F5" t="s">
         <v>25</v>
       </c>
-      <c r="C5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" t="s">
-        <v>93</v>
-      </c>
-      <c r="E5" t="s">
-        <v>94</v>
-      </c>
-      <c r="F5" t="s">
-        <v>27</v>
-      </c>
       <c r="G5" t="s">
-        <v>63</v>
+        <v>109</v>
       </c>
       <c r="H5" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1609,25 +1735,51 @@
         <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D6" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="E6" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="F6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6" t="s">
+        <v>70</v>
+      </c>
+      <c r="H6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" t="s">
+        <v>104</v>
+      </c>
+      <c r="E7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F7" t="s">
         <v>21</v>
       </c>
-      <c r="G6" t="s">
-        <v>63</v>
-      </c>
-      <c r="H6" t="s">
-        <v>29</v>
+      <c r="G7" t="s">
+        <v>70</v>
+      </c>
+      <c r="H7" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -1637,7 +1789,7 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1680,16 +1832,16 @@
         <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
       <c r="E2" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="F2" t="s">
         <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="H2" t="s">
         <v>20</v>
@@ -1706,16 +1858,16 @@
         <v>18</v>
       </c>
       <c r="D3" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
       <c r="E3" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="F3" t="s">
         <v>21</v>
       </c>
       <c r="G3" t="s">
-        <v>101</v>
+        <v>113</v>
       </c>
       <c r="H3" t="s">
         <v>20</v>
@@ -1732,16 +1884,16 @@
         <v>18</v>
       </c>
       <c r="D4" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
       <c r="E4" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="F4" t="s">
         <v>23</v>
       </c>
       <c r="G4" t="s">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c r="H4" t="s">
         <v>20</v>
@@ -1752,25 +1904,25 @@
         <v>16</v>
       </c>
       <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" t="s">
+        <v>110</v>
+      </c>
+      <c r="E5" t="s">
+        <v>111</v>
+      </c>
+      <c r="F5" t="s">
         <v>25</v>
       </c>
-      <c r="C5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" t="s">
-        <v>98</v>
-      </c>
-      <c r="E5" t="s">
-        <v>99</v>
-      </c>
-      <c r="F5" t="s">
-        <v>27</v>
-      </c>
       <c r="G5" t="s">
-        <v>103</v>
+        <v>115</v>
       </c>
       <c r="H5" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1778,25 +1930,51 @@
         <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D6" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
       <c r="E6" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="F6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6" t="s">
+        <v>116</v>
+      </c>
+      <c r="H6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" t="s">
+        <v>110</v>
+      </c>
+      <c r="E7" t="s">
+        <v>111</v>
+      </c>
+      <c r="F7" t="s">
         <v>21</v>
       </c>
-      <c r="G6" t="s">
-        <v>103</v>
-      </c>
-      <c r="H6" t="s">
-        <v>29</v>
+      <c r="G7" t="s">
+        <v>116</v>
+      </c>
+      <c r="H7" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -1806,7 +1984,7 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1849,16 +2027,16 @@
         <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
       <c r="E2" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="F2" t="s">
         <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="H2" t="s">
         <v>20</v>
@@ -1875,16 +2053,16 @@
         <v>18</v>
       </c>
       <c r="D3" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
       <c r="E3" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="F3" t="s">
         <v>21</v>
       </c>
       <c r="G3" t="s">
-        <v>107</v>
+        <v>120</v>
       </c>
       <c r="H3" t="s">
         <v>20</v>
@@ -1901,16 +2079,16 @@
         <v>18</v>
       </c>
       <c r="D4" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
       <c r="E4" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="F4" t="s">
         <v>23</v>
       </c>
       <c r="G4" t="s">
-        <v>108</v>
+        <v>121</v>
       </c>
       <c r="H4" t="s">
         <v>20</v>
@@ -1921,25 +2099,25 @@
         <v>16</v>
       </c>
       <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" t="s">
+        <v>117</v>
+      </c>
+      <c r="E5" t="s">
+        <v>118</v>
+      </c>
+      <c r="F5" t="s">
         <v>25</v>
       </c>
-      <c r="C5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" t="s">
-        <v>104</v>
-      </c>
-      <c r="E5" t="s">
-        <v>105</v>
-      </c>
-      <c r="F5" t="s">
-        <v>27</v>
-      </c>
       <c r="G5" t="s">
-        <v>63</v>
+        <v>122</v>
       </c>
       <c r="H5" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1947,25 +2125,51 @@
         <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D6" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
       <c r="E6" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="F6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6" t="s">
+        <v>70</v>
+      </c>
+      <c r="H6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" t="s">
+        <v>117</v>
+      </c>
+      <c r="E7" t="s">
+        <v>118</v>
+      </c>
+      <c r="F7" t="s">
         <v>21</v>
       </c>
-      <c r="G6" t="s">
-        <v>63</v>
-      </c>
-      <c r="H6" t="s">
-        <v>29</v>
+      <c r="G7" t="s">
+        <v>70</v>
+      </c>
+      <c r="H7" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -2018,16 +2222,16 @@
         <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>109</v>
+        <v>123</v>
       </c>
       <c r="E2" t="s">
-        <v>110</v>
+        <v>124</v>
       </c>
       <c r="F2" t="s">
         <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>111</v>
+        <v>125</v>
       </c>
       <c r="H2" t="s">
         <v>20</v>
@@ -2044,16 +2248,16 @@
         <v>18</v>
       </c>
       <c r="D3" t="s">
-        <v>109</v>
+        <v>123</v>
       </c>
       <c r="E3" t="s">
-        <v>110</v>
+        <v>124</v>
       </c>
       <c r="F3" t="s">
         <v>21</v>
       </c>
       <c r="G3" t="s">
-        <v>112</v>
+        <v>126</v>
       </c>
       <c r="H3" t="s">
         <v>20</v>
@@ -2070,16 +2274,16 @@
         <v>18</v>
       </c>
       <c r="D4" t="s">
-        <v>109</v>
+        <v>123</v>
       </c>
       <c r="E4" t="s">
-        <v>110</v>
+        <v>124</v>
       </c>
       <c r="F4" t="s">
         <v>23</v>
       </c>
       <c r="G4" t="s">
-        <v>113</v>
+        <v>127</v>
       </c>
       <c r="H4" t="s">
         <v>20</v>
@@ -2090,25 +2294,25 @@
         <v>16</v>
       </c>
       <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" t="s">
+        <v>123</v>
+      </c>
+      <c r="E5" t="s">
+        <v>124</v>
+      </c>
+      <c r="F5" t="s">
         <v>25</v>
       </c>
-      <c r="C5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" t="s">
-        <v>109</v>
-      </c>
-      <c r="E5" t="s">
-        <v>110</v>
-      </c>
-      <c r="F5" t="s">
-        <v>27</v>
-      </c>
       <c r="G5" t="s">
-        <v>114</v>
+        <v>128</v>
       </c>
       <c r="H5" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -2116,25 +2320,25 @@
         <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D6" t="s">
-        <v>109</v>
+        <v>123</v>
       </c>
       <c r="E6" t="s">
-        <v>110</v>
+        <v>124</v>
       </c>
       <c r="F6" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="G6" t="s">
-        <v>114</v>
+        <v>129</v>
       </c>
       <c r="H6" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -2142,25 +2346,25 @@
         <v>16</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D7" t="s">
-        <v>109</v>
+        <v>123</v>
       </c>
       <c r="E7" t="s">
-        <v>110</v>
+        <v>124</v>
       </c>
       <c r="F7" t="s">
-        <v>115</v>
+        <v>21</v>
       </c>
       <c r="G7" t="s">
-        <v>92</v>
+        <v>129</v>
       </c>
       <c r="H7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -2169,6 +2373,201 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E2" t="s">
+        <v>131</v>
+      </c>
+      <c r="F2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" t="s">
+        <v>132</v>
+      </c>
+      <c r="H2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" t="s">
+        <v>130</v>
+      </c>
+      <c r="E3" t="s">
+        <v>131</v>
+      </c>
+      <c r="F3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" t="s">
+        <v>133</v>
+      </c>
+      <c r="H3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" t="s">
+        <v>130</v>
+      </c>
+      <c r="E4" t="s">
+        <v>131</v>
+      </c>
+      <c r="F4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" t="s">
+        <v>134</v>
+      </c>
+      <c r="H4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" t="s">
+        <v>130</v>
+      </c>
+      <c r="E5" t="s">
+        <v>131</v>
+      </c>
+      <c r="F5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" t="s">
+        <v>135</v>
+      </c>
+      <c r="H5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" t="s">
+        <v>130</v>
+      </c>
+      <c r="E6" t="s">
+        <v>131</v>
+      </c>
+      <c r="F6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6" t="s">
+        <v>136</v>
+      </c>
+      <c r="H6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" t="s">
+        <v>130</v>
+      </c>
+      <c r="E7" t="s">
+        <v>131</v>
+      </c>
+      <c r="F7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" t="s">
+        <v>136</v>
+      </c>
+      <c r="H7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H6"/>
   <sheetViews>
@@ -2213,16 +2612,16 @@
         <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>116</v>
+        <v>137</v>
       </c>
       <c r="E2" t="s">
-        <v>117</v>
+        <v>138</v>
       </c>
       <c r="F2" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="G2" t="s">
-        <v>118</v>
+        <v>139</v>
       </c>
       <c r="H2" t="s">
         <v>20</v>
@@ -2239,16 +2638,16 @@
         <v>18</v>
       </c>
       <c r="D3" t="s">
-        <v>116</v>
+        <v>137</v>
       </c>
       <c r="E3" t="s">
-        <v>117</v>
+        <v>138</v>
       </c>
       <c r="F3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G3" t="s">
-        <v>119</v>
+        <v>140</v>
       </c>
       <c r="H3" t="s">
         <v>20</v>
@@ -2265,16 +2664,16 @@
         <v>18</v>
       </c>
       <c r="D4" t="s">
-        <v>116</v>
+        <v>137</v>
       </c>
       <c r="E4" t="s">
-        <v>117</v>
+        <v>138</v>
       </c>
       <c r="F4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G4" t="s">
-        <v>120</v>
+        <v>141</v>
       </c>
       <c r="H4" t="s">
         <v>20</v>
@@ -2285,25 +2684,25 @@
         <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D5" t="s">
-        <v>116</v>
+        <v>137</v>
       </c>
       <c r="E5" t="s">
-        <v>117</v>
+        <v>138</v>
       </c>
       <c r="F5" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G5" t="s">
-        <v>121</v>
+        <v>89</v>
       </c>
       <c r="H5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -2311,25 +2710,25 @@
         <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D6" t="s">
-        <v>116</v>
+        <v>137</v>
       </c>
       <c r="E6" t="s">
-        <v>117</v>
+        <v>138</v>
       </c>
       <c r="F6" t="s">
         <v>21</v>
       </c>
       <c r="G6" t="s">
-        <v>121</v>
+        <v>89</v>
       </c>
       <c r="H6" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -2337,9 +2736,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2373,28 +2772,28 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>122</v>
+        <v>32</v>
       </c>
       <c r="E2" t="s">
-        <v>123</v>
+        <v>33</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>124</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -2408,16 +2807,16 @@
         <v>18</v>
       </c>
       <c r="D3" t="s">
-        <v>122</v>
+        <v>32</v>
       </c>
       <c r="E3" t="s">
-        <v>123</v>
+        <v>33</v>
       </c>
       <c r="F3" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="G3" t="s">
-        <v>125</v>
+        <v>34</v>
       </c>
       <c r="H3" t="s">
         <v>20</v>
@@ -2428,25 +2827,25 @@
         <v>16</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="D4" t="s">
-        <v>122</v>
+        <v>32</v>
       </c>
       <c r="E4" t="s">
-        <v>123</v>
+        <v>33</v>
       </c>
       <c r="F4" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="G4" t="s">
-        <v>79</v>
+        <v>35</v>
       </c>
       <c r="H4" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -2454,25 +2853,103 @@
         <v>16</v>
       </c>
       <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" t="s">
+        <v>36</v>
+      </c>
+      <c r="H5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6" t="s">
         <v>25</v>
       </c>
-      <c r="C5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" t="s">
-        <v>122</v>
-      </c>
-      <c r="E5" t="s">
-        <v>123</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="G6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7" t="s">
+        <v>37</v>
+      </c>
+      <c r="H7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" t="s">
+        <v>33</v>
+      </c>
+      <c r="F8" t="s">
         <v>21</v>
       </c>
-      <c r="G5" t="s">
-        <v>79</v>
-      </c>
-      <c r="H5" t="s">
-        <v>29</v>
+      <c r="G8" t="s">
+        <v>37</v>
+      </c>
+      <c r="H8" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -2480,7 +2957,722 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s">
+        <v>40</v>
+      </c>
+      <c r="H3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" t="s">
+        <v>42</v>
+      </c>
+      <c r="H5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" t="s">
+        <v>39</v>
+      </c>
+      <c r="F6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" t="s">
+        <v>43</v>
+      </c>
+      <c r="H6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F7" t="s">
+        <v>44</v>
+      </c>
+      <c r="G7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8" t="s">
+        <v>39</v>
+      </c>
+      <c r="F8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" t="s">
+        <v>14</v>
+      </c>
+      <c r="H8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" t="s">
+        <v>39</v>
+      </c>
+      <c r="F9" t="s">
+        <v>29</v>
+      </c>
+      <c r="G9" t="s">
+        <v>14</v>
+      </c>
+      <c r="H9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10" t="s">
+        <v>39</v>
+      </c>
+      <c r="F10" t="s">
+        <v>21</v>
+      </c>
+      <c r="G10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" t="s">
+        <v>48</v>
+      </c>
+      <c r="H4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" t="s">
+        <v>49</v>
+      </c>
+      <c r="H5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E6" t="s">
+        <v>46</v>
+      </c>
+      <c r="F6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" t="s">
+        <v>50</v>
+      </c>
+      <c r="H6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7" t="s">
+        <v>51</v>
+      </c>
+      <c r="H7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E8" t="s">
+        <v>46</v>
+      </c>
+      <c r="F8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8" t="s">
+        <v>51</v>
+      </c>
+      <c r="H8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s">
+        <v>54</v>
+      </c>
+      <c r="H3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E4" t="s">
+        <v>53</v>
+      </c>
+      <c r="F4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" t="s">
+        <v>55</v>
+      </c>
+      <c r="H4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" t="s">
+        <v>56</v>
+      </c>
+      <c r="H5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" t="s">
+        <v>52</v>
+      </c>
+      <c r="E6" t="s">
+        <v>53</v>
+      </c>
+      <c r="F6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" t="s">
+        <v>57</v>
+      </c>
+      <c r="H6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" t="s">
+        <v>52</v>
+      </c>
+      <c r="E7" t="s">
+        <v>53</v>
+      </c>
+      <c r="F7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7" t="s">
+        <v>51</v>
+      </c>
+      <c r="H7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" t="s">
+        <v>52</v>
+      </c>
+      <c r="E8" t="s">
+        <v>53</v>
+      </c>
+      <c r="F8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8" t="s">
+        <v>51</v>
+      </c>
+      <c r="H8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H7"/>
   <sheetViews>
@@ -2516,28 +3708,28 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>30</v>
+        <v>58</v>
       </c>
       <c r="E2" t="s">
-        <v>31</v>
+        <v>59</v>
       </c>
       <c r="F2" t="s">
         <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>14</v>
+        <v>60</v>
       </c>
       <c r="H2" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -2551,16 +3743,16 @@
         <v>18</v>
       </c>
       <c r="D3" t="s">
-        <v>30</v>
+        <v>58</v>
       </c>
       <c r="E3" t="s">
-        <v>31</v>
+        <v>59</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="G3" t="s">
-        <v>32</v>
+        <v>61</v>
       </c>
       <c r="H3" t="s">
         <v>20</v>
@@ -2577,16 +3769,16 @@
         <v>18</v>
       </c>
       <c r="D4" t="s">
-        <v>30</v>
+        <v>58</v>
       </c>
       <c r="E4" t="s">
-        <v>31</v>
+        <v>59</v>
       </c>
       <c r="F4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G4" t="s">
-        <v>33</v>
+        <v>62</v>
       </c>
       <c r="H4" t="s">
         <v>20</v>
@@ -2603,16 +3795,16 @@
         <v>18</v>
       </c>
       <c r="D5" t="s">
-        <v>30</v>
+        <v>58</v>
       </c>
       <c r="E5" t="s">
-        <v>31</v>
+        <v>59</v>
       </c>
       <c r="F5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G5" t="s">
-        <v>34</v>
+        <v>63</v>
       </c>
       <c r="H5" t="s">
         <v>20</v>
@@ -2623,25 +3815,25 @@
         <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E6" t="s">
+        <v>59</v>
+      </c>
+      <c r="F6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6" t="s">
         <v>30</v>
       </c>
-      <c r="E6" t="s">
+      <c r="H6" t="s">
         <v>31</v>
-      </c>
-      <c r="F6" t="s">
-        <v>27</v>
-      </c>
-      <c r="G6" t="s">
-        <v>35</v>
-      </c>
-      <c r="H6" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -2649,25 +3841,25 @@
         <v>16</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D7" t="s">
-        <v>30</v>
+        <v>58</v>
       </c>
       <c r="E7" t="s">
-        <v>31</v>
+        <v>59</v>
       </c>
       <c r="F7" t="s">
         <v>21</v>
       </c>
       <c r="G7" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -2675,254 +3867,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" t="s">
-        <v>36</v>
-      </c>
-      <c r="E3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" t="s">
-        <v>38</v>
-      </c>
-      <c r="H3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" t="s">
-        <v>36</v>
-      </c>
-      <c r="E4" t="s">
-        <v>37</v>
-      </c>
-      <c r="F4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G4" t="s">
-        <v>39</v>
-      </c>
-      <c r="H4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" t="s">
-        <v>36</v>
-      </c>
-      <c r="E5" t="s">
-        <v>37</v>
-      </c>
-      <c r="F5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G5" t="s">
-        <v>40</v>
-      </c>
-      <c r="H5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" t="s">
-        <v>36</v>
-      </c>
-      <c r="E6" t="s">
-        <v>37</v>
-      </c>
-      <c r="F6" t="s">
-        <v>41</v>
-      </c>
-      <c r="G6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" t="s">
-        <v>36</v>
-      </c>
-      <c r="E7" t="s">
-        <v>37</v>
-      </c>
-      <c r="F7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G7" t="s">
-        <v>14</v>
-      </c>
-      <c r="H7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" t="s">
-        <v>36</v>
-      </c>
-      <c r="E8" t="s">
-        <v>37</v>
-      </c>
-      <c r="F8" t="s">
-        <v>27</v>
-      </c>
-      <c r="G8" t="s">
-        <v>14</v>
-      </c>
-      <c r="H8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E9" t="s">
-        <v>37</v>
-      </c>
-      <c r="F9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G9" t="s">
-        <v>14</v>
-      </c>
-      <c r="H9" t="s">
-        <v>29</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H7"/>
   <sheetViews>
@@ -2958,28 +3903,28 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="E2" t="s">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="F2" t="s">
         <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>14</v>
+        <v>66</v>
       </c>
       <c r="H2" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -2993,16 +3938,16 @@
         <v>18</v>
       </c>
       <c r="D3" t="s">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="E3" t="s">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="G3" t="s">
-        <v>44</v>
+        <v>67</v>
       </c>
       <c r="H3" t="s">
         <v>20</v>
@@ -3019,16 +3964,16 @@
         <v>18</v>
       </c>
       <c r="D4" t="s">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="E4" t="s">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="F4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G4" t="s">
-        <v>45</v>
+        <v>68</v>
       </c>
       <c r="H4" t="s">
         <v>20</v>
@@ -3045,16 +3990,16 @@
         <v>18</v>
       </c>
       <c r="D5" t="s">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="E5" t="s">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="F5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>69</v>
       </c>
       <c r="H5" t="s">
         <v>20</v>
@@ -3065,25 +4010,25 @@
         <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D6" t="s">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="E6" t="s">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="F6" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G6" t="s">
-        <v>47</v>
+        <v>70</v>
       </c>
       <c r="H6" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -3091,25 +4036,25 @@
         <v>16</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D7" t="s">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="E7" t="s">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="F7" t="s">
         <v>21</v>
       </c>
       <c r="G7" t="s">
-        <v>47</v>
+        <v>70</v>
       </c>
       <c r="H7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -3117,7 +4062,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H7"/>
   <sheetViews>
@@ -3153,28 +4098,28 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>48</v>
+        <v>71</v>
       </c>
       <c r="E2" t="s">
-        <v>49</v>
+        <v>72</v>
       </c>
       <c r="F2" t="s">
         <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>14</v>
+        <v>73</v>
       </c>
       <c r="H2" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -3188,16 +4133,16 @@
         <v>18</v>
       </c>
       <c r="D3" t="s">
-        <v>48</v>
+        <v>71</v>
       </c>
       <c r="E3" t="s">
-        <v>49</v>
+        <v>72</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="G3" t="s">
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="H3" t="s">
         <v>20</v>
@@ -3214,16 +4159,16 @@
         <v>18</v>
       </c>
       <c r="D4" t="s">
-        <v>48</v>
+        <v>71</v>
       </c>
       <c r="E4" t="s">
-        <v>49</v>
+        <v>72</v>
       </c>
       <c r="F4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G4" t="s">
-        <v>51</v>
+        <v>75</v>
       </c>
       <c r="H4" t="s">
         <v>20</v>
@@ -3240,16 +4185,16 @@
         <v>18</v>
       </c>
       <c r="D5" t="s">
-        <v>48</v>
+        <v>71</v>
       </c>
       <c r="E5" t="s">
-        <v>49</v>
+        <v>72</v>
       </c>
       <c r="F5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G5" t="s">
-        <v>52</v>
+        <v>76</v>
       </c>
       <c r="H5" t="s">
         <v>20</v>
@@ -3260,25 +4205,25 @@
         <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D6" t="s">
-        <v>48</v>
+        <v>71</v>
       </c>
       <c r="E6" t="s">
-        <v>49</v>
+        <v>72</v>
       </c>
       <c r="F6" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G6" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="H6" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -3286,25 +4231,25 @@
         <v>16</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D7" t="s">
-        <v>48</v>
+        <v>71</v>
       </c>
       <c r="E7" t="s">
-        <v>49</v>
+        <v>72</v>
       </c>
       <c r="F7" t="s">
         <v>21</v>
       </c>
       <c r="G7" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="H7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -3312,9 +4257,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3357,16 +4302,16 @@
         <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>53</v>
+        <v>77</v>
       </c>
       <c r="E2" t="s">
-        <v>54</v>
+        <v>78</v>
       </c>
       <c r="F2" t="s">
         <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>55</v>
+        <v>79</v>
       </c>
       <c r="H2" t="s">
         <v>20</v>
@@ -3383,16 +4328,16 @@
         <v>18</v>
       </c>
       <c r="D3" t="s">
-        <v>53</v>
+        <v>77</v>
       </c>
       <c r="E3" t="s">
-        <v>54</v>
+        <v>78</v>
       </c>
       <c r="F3" t="s">
         <v>21</v>
       </c>
       <c r="G3" t="s">
-        <v>56</v>
+        <v>80</v>
       </c>
       <c r="H3" t="s">
         <v>20</v>
@@ -3409,16 +4354,16 @@
         <v>18</v>
       </c>
       <c r="D4" t="s">
-        <v>53</v>
+        <v>77</v>
       </c>
       <c r="E4" t="s">
-        <v>54</v>
+        <v>78</v>
       </c>
       <c r="F4" t="s">
         <v>23</v>
       </c>
       <c r="G4" t="s">
-        <v>57</v>
+        <v>81</v>
       </c>
       <c r="H4" t="s">
         <v>20</v>
@@ -3429,25 +4374,25 @@
         <v>16</v>
       </c>
       <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" t="s">
+        <v>77</v>
+      </c>
+      <c r="E5" t="s">
+        <v>78</v>
+      </c>
+      <c r="F5" t="s">
         <v>25</v>
       </c>
-      <c r="C5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" t="s">
-        <v>53</v>
-      </c>
-      <c r="E5" t="s">
-        <v>54</v>
-      </c>
-      <c r="F5" t="s">
-        <v>27</v>
-      </c>
       <c r="G5" t="s">
-        <v>28</v>
+        <v>82</v>
       </c>
       <c r="H5" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -3455,532 +4400,51 @@
         <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D6" t="s">
-        <v>53</v>
+        <v>77</v>
       </c>
       <c r="E6" t="s">
-        <v>54</v>
+        <v>78</v>
       </c>
       <c r="F6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6" t="s">
+        <v>51</v>
+      </c>
+      <c r="H6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" t="s">
+        <v>77</v>
+      </c>
+      <c r="E7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F7" t="s">
         <v>21</v>
       </c>
-      <c r="G6" t="s">
-        <v>28</v>
-      </c>
-      <c r="H6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" t="s">
-        <v>58</v>
-      </c>
-      <c r="E2" t="s">
-        <v>59</v>
-      </c>
-      <c r="F2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" t="s">
-        <v>60</v>
-      </c>
-      <c r="H2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" t="s">
-        <v>58</v>
-      </c>
-      <c r="E3" t="s">
-        <v>59</v>
-      </c>
-      <c r="F3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G3" t="s">
-        <v>61</v>
-      </c>
-      <c r="H3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" t="s">
-        <v>58</v>
-      </c>
-      <c r="E4" t="s">
-        <v>59</v>
-      </c>
-      <c r="F4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G4" t="s">
-        <v>62</v>
-      </c>
-      <c r="H4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" t="s">
-        <v>58</v>
-      </c>
-      <c r="E5" t="s">
-        <v>59</v>
-      </c>
-      <c r="F5" t="s">
-        <v>27</v>
-      </c>
-      <c r="G5" t="s">
-        <v>63</v>
-      </c>
-      <c r="H5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" t="s">
-        <v>58</v>
-      </c>
-      <c r="E6" t="s">
-        <v>59</v>
-      </c>
-      <c r="F6" t="s">
-        <v>21</v>
-      </c>
-      <c r="G6" t="s">
-        <v>63</v>
-      </c>
-      <c r="H6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" t="s">
-        <v>64</v>
-      </c>
-      <c r="E2" t="s">
-        <v>65</v>
-      </c>
-      <c r="F2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" t="s">
-        <v>66</v>
-      </c>
-      <c r="H2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" t="s">
-        <v>64</v>
-      </c>
-      <c r="E3" t="s">
-        <v>65</v>
-      </c>
-      <c r="F3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G3" t="s">
-        <v>67</v>
-      </c>
-      <c r="H3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" t="s">
-        <v>64</v>
-      </c>
-      <c r="E4" t="s">
-        <v>65</v>
-      </c>
-      <c r="F4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G4" t="s">
-        <v>68</v>
-      </c>
-      <c r="H4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" t="s">
-        <v>64</v>
-      </c>
-      <c r="E5" t="s">
-        <v>65</v>
-      </c>
-      <c r="F5" t="s">
-        <v>27</v>
-      </c>
-      <c r="G5" t="s">
-        <v>47</v>
-      </c>
-      <c r="H5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" t="s">
-        <v>64</v>
-      </c>
-      <c r="E6" t="s">
-        <v>65</v>
-      </c>
-      <c r="F6" t="s">
-        <v>21</v>
-      </c>
-      <c r="G6" t="s">
-        <v>47</v>
-      </c>
-      <c r="H6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" t="s">
-        <v>69</v>
-      </c>
-      <c r="E2" t="s">
-        <v>70</v>
-      </c>
-      <c r="F2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" t="s">
-        <v>71</v>
-      </c>
-      <c r="H2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" t="s">
-        <v>69</v>
-      </c>
-      <c r="E3" t="s">
-        <v>70</v>
-      </c>
-      <c r="F3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G3" t="s">
-        <v>72</v>
-      </c>
-      <c r="H3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" t="s">
-        <v>69</v>
-      </c>
-      <c r="E4" t="s">
-        <v>70</v>
-      </c>
-      <c r="F4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G4" t="s">
-        <v>73</v>
-      </c>
-      <c r="H4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" t="s">
-        <v>69</v>
-      </c>
-      <c r="E5" t="s">
-        <v>70</v>
-      </c>
-      <c r="F5" t="s">
-        <v>27</v>
-      </c>
-      <c r="G5" t="s">
-        <v>47</v>
-      </c>
-      <c r="H5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" t="s">
-        <v>69</v>
-      </c>
-      <c r="E6" t="s">
-        <v>70</v>
-      </c>
-      <c r="F6" t="s">
-        <v>21</v>
-      </c>
-      <c r="G6" t="s">
-        <v>47</v>
-      </c>
-      <c r="H6" t="s">
-        <v>29</v>
+      <c r="G7" t="s">
+        <v>51</v>
+      </c>
+      <c r="H7" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/secteur-action-publique/justice/regions/barometre-resultats-justice-regions-detail.xlsx
+++ b/secteur-action-publique/justice/regions/barometre-resultats-justice-regions-detail.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2400" uniqueCount="239">
   <si>
     <t>mesure</t>
   </si>
@@ -81,7 +81,46 @@
     <t>% des demandes *</t>
   </si>
   <si>
-    <t>Lutter contre la récidive par une meilleure insertion professionnelle des condamnés</t>
+    <t>Lutter contre la récidive par une meilleure insertion professionnelle des personnes placées sous main de justice</t>
+  </si>
+  <si>
+    <t>Taux de personnes détenues ayant bénéficié d'une formation dans l'année</t>
+  </si>
+  <si>
+    <t>tx-detenus-formation</t>
+  </si>
+  <si>
+    <t>2021-06-30</t>
+  </si>
+  <si>
+    <t>3.0</t>
+  </si>
+  <si>
+    <t>% de détenus</t>
+  </si>
+  <si>
+    <t>2021-09-30</t>
+  </si>
+  <si>
+    <t>2021-12-31</t>
+  </si>
+  <si>
+    <t>4.0</t>
+  </si>
+  <si>
+    <t>2022-03-31</t>
+  </si>
+  <si>
+    <t>5.0</t>
+  </si>
+  <si>
+    <t>2022-06-30</t>
+  </si>
+  <si>
+    <t>8.0</t>
+  </si>
+  <si>
+    <t>2022-09-30</t>
   </si>
   <si>
     <t>Postes de travail d’intérêt général proposés sur l’ensemble du territoire national en tant que peine</t>
@@ -96,9 +135,6 @@
     <t>postes</t>
   </si>
   <si>
-    <t>2021-09-30</t>
-  </si>
-  <si>
     <t>139.0</t>
   </si>
   <si>
@@ -114,19 +150,22 @@
     <t>173.0</t>
   </si>
   <si>
-    <t>Taux de personnes détenues ayant bénéficié d'une formation dans l'année</t>
-  </si>
-  <si>
-    <t>tx-detenus-formation</t>
-  </si>
-  <si>
-    <t>2021-06-30</t>
-  </si>
-  <si>
-    <t>3.0</t>
-  </si>
-  <si>
-    <t>% de détenus</t>
+    <t>159.0</t>
+  </si>
+  <si>
+    <t>206.0</t>
+  </si>
+  <si>
+    <t>218.0</t>
+  </si>
+  <si>
+    <t>2022-11-30</t>
+  </si>
+  <si>
+    <t>2022-12-31</t>
+  </si>
+  <si>
+    <t>219.0</t>
   </si>
   <si>
     <t>02</t>
@@ -135,6 +174,36 @@
     <t>Martinique</t>
   </si>
   <si>
+    <t>100.0</t>
+  </si>
+  <si>
+    <t>2022-07-31</t>
+  </si>
+  <si>
+    <t>13.7</t>
+  </si>
+  <si>
+    <t>2022-08-31</t>
+  </si>
+  <si>
+    <t>94.1</t>
+  </si>
+  <si>
+    <t>2022-10-31</t>
+  </si>
+  <si>
+    <t>9.2</t>
+  </si>
+  <si>
+    <t>8.8</t>
+  </si>
+  <si>
+    <t>2.0</t>
+  </si>
+  <si>
+    <t>6.0</t>
+  </si>
+  <si>
     <t>55.0</t>
   </si>
   <si>
@@ -144,7 +213,16 @@
     <t>69.0</t>
   </si>
   <si>
-    <t>2.0</t>
+    <t>77.0</t>
+  </si>
+  <si>
+    <t>83.0</t>
+  </si>
+  <si>
+    <t>84.0</t>
+  </si>
+  <si>
+    <t>86.0</t>
   </si>
   <si>
     <t>03</t>
@@ -153,6 +231,9 @@
     <t>Guyane</t>
   </si>
   <si>
+    <t>2020-03-31</t>
+  </si>
+  <si>
     <t>45.0</t>
   </si>
   <si>
@@ -165,7 +246,13 @@
     <t>82.0</t>
   </si>
   <si>
-    <t>2020-03-31</t>
+    <t>91.0</t>
+  </si>
+  <si>
+    <t>87.0</t>
+  </si>
+  <si>
+    <t>88.0</t>
   </si>
   <si>
     <t>04</t>
@@ -186,7 +273,19 @@
     <t>149.0</t>
   </si>
   <si>
-    <t>4.0</t>
+    <t>146.0</t>
+  </si>
+  <si>
+    <t>162.0</t>
+  </si>
+  <si>
+    <t>199.0</t>
+  </si>
+  <si>
+    <t>198.0</t>
+  </si>
+  <si>
+    <t>200.0</t>
   </si>
   <si>
     <t>06</t>
@@ -195,6 +294,9 @@
     <t>Mayotte</t>
   </si>
   <si>
+    <t>11.0</t>
+  </si>
+  <si>
     <t>70.0</t>
   </si>
   <si>
@@ -207,6 +309,15 @@
     <t>54.0</t>
   </si>
   <si>
+    <t>60.0</t>
+  </si>
+  <si>
+    <t>64.0</t>
+  </si>
+  <si>
+    <t>53.0</t>
+  </si>
+  <si>
     <t>11</t>
   </si>
   <si>
@@ -225,12 +336,30 @@
     <t>1458.0</t>
   </si>
   <si>
+    <t>1695.0</t>
+  </si>
+  <si>
+    <t>1816.0</t>
+  </si>
+  <si>
+    <t>1837.0</t>
+  </si>
+  <si>
+    <t>1843.0</t>
+  </si>
+  <si>
     <t>24</t>
   </si>
   <si>
     <t>Centre-Val de Loire</t>
   </si>
   <si>
+    <t>9.0</t>
+  </si>
+  <si>
+    <t>7.0</t>
+  </si>
+  <si>
     <t>845.0</t>
   </si>
   <si>
@@ -243,7 +372,19 @@
     <t>1026.0</t>
   </si>
   <si>
-    <t>6.0</t>
+    <t>1112.0</t>
+  </si>
+  <si>
+    <t>1243.0</t>
+  </si>
+  <si>
+    <t>1365.0</t>
+  </si>
+  <si>
+    <t>1407.0</t>
+  </si>
+  <si>
+    <t>1431.0</t>
   </si>
   <si>
     <t>27</t>
@@ -264,6 +405,21 @@
     <t>1621.0</t>
   </si>
   <si>
+    <t>1672.0</t>
+  </si>
+  <si>
+    <t>1773.0</t>
+  </si>
+  <si>
+    <t>1853.0</t>
+  </si>
+  <si>
+    <t>1887.0</t>
+  </si>
+  <si>
+    <t>1899.0</t>
+  </si>
+  <si>
     <t>28</t>
   </si>
   <si>
@@ -282,12 +438,33 @@
     <t>1333.0</t>
   </si>
   <si>
+    <t>1397.0</t>
+  </si>
+  <si>
+    <t>1441.0</t>
+  </si>
+  <si>
+    <t>1506.0</t>
+  </si>
+  <si>
+    <t>1560.0</t>
+  </si>
+  <si>
+    <t>1583.0</t>
+  </si>
+  <si>
     <t>32</t>
   </si>
   <si>
     <t>Hauts-de-France</t>
   </si>
   <si>
+    <t>17.0</t>
+  </si>
+  <si>
+    <t>12.0</t>
+  </si>
+  <si>
     <t>1610.0</t>
   </si>
   <si>
@@ -300,7 +477,19 @@
     <t>1903.0</t>
   </si>
   <si>
-    <t>9.0</t>
+    <t>1946.0</t>
+  </si>
+  <si>
+    <t>2013.0</t>
+  </si>
+  <si>
+    <t>2179.0</t>
+  </si>
+  <si>
+    <t>2215.0</t>
+  </si>
+  <si>
+    <t>2209.0</t>
   </si>
   <si>
     <t>44</t>
@@ -321,7 +510,19 @@
     <t>2590.0</t>
   </si>
   <si>
-    <t>5.0</t>
+    <t>2646.0</t>
+  </si>
+  <si>
+    <t>2758.0</t>
+  </si>
+  <si>
+    <t>2871.0</t>
+  </si>
+  <si>
+    <t>2898.0</t>
+  </si>
+  <si>
+    <t>2928.0</t>
   </si>
   <si>
     <t>52</t>
@@ -330,6 +531,9 @@
     <t>Pays de la Loire</t>
   </si>
   <si>
+    <t>16.0</t>
+  </si>
+  <si>
     <t>980.0</t>
   </si>
   <si>
@@ -342,7 +546,16 @@
     <t>1357.0</t>
   </si>
   <si>
-    <t>11.0</t>
+    <t>1378.0</t>
+  </si>
+  <si>
+    <t>1427.0</t>
+  </si>
+  <si>
+    <t>1522.0</t>
+  </si>
+  <si>
+    <t>1539.0</t>
   </si>
   <si>
     <t>53</t>
@@ -351,6 +564,9 @@
     <t>Bretagne</t>
   </si>
   <si>
+    <t>13.0</t>
+  </si>
+  <si>
     <t>1355.0</t>
   </si>
   <si>
@@ -363,12 +579,27 @@
     <t>1367.0</t>
   </si>
   <si>
+    <t>1342.0</t>
+  </si>
+  <si>
+    <t>1377.0</t>
+  </si>
+  <si>
+    <t>1434.0</t>
+  </si>
+  <si>
+    <t>1445.0</t>
+  </si>
+  <si>
     <t>75</t>
   </si>
   <si>
     <t>Nouvelle-Aquitaine</t>
   </si>
   <si>
+    <t>10.0</t>
+  </si>
+  <si>
     <t>2635.0</t>
   </si>
   <si>
@@ -381,7 +612,19 @@
     <t>2816.0</t>
   </si>
   <si>
-    <t>10.0</t>
+    <t>2908.0</t>
+  </si>
+  <si>
+    <t>3030.0</t>
+  </si>
+  <si>
+    <t>3149.0</t>
+  </si>
+  <si>
+    <t>3200.0</t>
+  </si>
+  <si>
+    <t>3239.0</t>
   </si>
   <si>
     <t>76</t>
@@ -402,6 +645,21 @@
     <t>2277.0</t>
   </si>
   <si>
+    <t>2336.0</t>
+  </si>
+  <si>
+    <t>2448.0</t>
+  </si>
+  <si>
+    <t>2576.0</t>
+  </si>
+  <si>
+    <t>2628.0</t>
+  </si>
+  <si>
+    <t>2672.0</t>
+  </si>
+  <si>
     <t>84</t>
   </si>
   <si>
@@ -420,7 +678,19 @@
     <t>2239.0</t>
   </si>
   <si>
-    <t>7.0</t>
+    <t>2315.0</t>
+  </si>
+  <si>
+    <t>2638.0</t>
+  </si>
+  <si>
+    <t>2794.0</t>
+  </si>
+  <si>
+    <t>2858.0</t>
+  </si>
+  <si>
+    <t>2902.0</t>
   </si>
   <si>
     <t>93</t>
@@ -441,7 +711,19 @@
     <t>1085.0</t>
   </si>
   <si>
-    <t>8.0</t>
+    <t>1071.0</t>
+  </si>
+  <si>
+    <t>1164.0</t>
+  </si>
+  <si>
+    <t>1292.0</t>
+  </si>
+  <si>
+    <t>1324.0</t>
+  </si>
+  <si>
+    <t>1348.0</t>
   </si>
   <si>
     <t>94</t>
@@ -457,6 +739,15 @@
   </si>
   <si>
     <t>303.0</t>
+  </si>
+  <si>
+    <t>208.0</t>
+  </si>
+  <si>
+    <t>212.0</t>
+  </si>
+  <si>
+    <t>216.0</t>
   </si>
 </sst>
 </file>
@@ -788,7 +1079,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -863,13 +1154,13 @@
         <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -889,13 +1180,13 @@
         <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -921,7 +1212,7 @@
         <v>24</v>
       </c>
       <c r="H5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -947,7 +1238,7 @@
         <v>26</v>
       </c>
       <c r="H6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -955,10 +1246,10 @@
         <v>16</v>
       </c>
       <c r="B7" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="D7" t="s">
         <v>11</v>
@@ -967,13 +1258,13 @@
         <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H7" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -981,10 +1272,10 @@
         <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="C8" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="D8" t="s">
         <v>11</v>
@@ -993,13 +1284,247 @@
         <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="G8" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H8" t="s">
-        <v>31</v>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" t="s">
+        <v>32</v>
+      </c>
+      <c r="H9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" t="s">
+        <v>22</v>
+      </c>
+      <c r="G10" t="s">
+        <v>34</v>
+      </c>
+      <c r="H10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" t="s">
+        <v>35</v>
+      </c>
+      <c r="G11" t="s">
+        <v>36</v>
+      </c>
+      <c r="H11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" t="s">
+        <v>37</v>
+      </c>
+      <c r="G12" t="s">
+        <v>38</v>
+      </c>
+      <c r="H12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" t="s">
+        <v>25</v>
+      </c>
+      <c r="G13" t="s">
+        <v>39</v>
+      </c>
+      <c r="H13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" t="s">
+        <v>27</v>
+      </c>
+      <c r="G14" t="s">
+        <v>40</v>
+      </c>
+      <c r="H14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" t="s">
+        <v>29</v>
+      </c>
+      <c r="G15" t="s">
+        <v>41</v>
+      </c>
+      <c r="H15" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16" t="s">
+        <v>42</v>
+      </c>
+      <c r="G16" t="s">
+        <v>41</v>
+      </c>
+      <c r="H16" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" t="s">
+        <v>12</v>
+      </c>
+      <c r="F17" t="s">
+        <v>43</v>
+      </c>
+      <c r="G17" t="s">
+        <v>44</v>
+      </c>
+      <c r="H17" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -1009,7 +1534,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1052,19 +1577,19 @@
         <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>83</v>
+        <v>140</v>
       </c>
       <c r="E2" t="s">
-        <v>84</v>
+        <v>141</v>
       </c>
       <c r="F2" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G2" t="s">
-        <v>85</v>
+        <v>107</v>
       </c>
       <c r="H2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1078,19 +1603,19 @@
         <v>18</v>
       </c>
       <c r="D3" t="s">
-        <v>83</v>
+        <v>140</v>
       </c>
       <c r="E3" t="s">
-        <v>84</v>
+        <v>141</v>
       </c>
       <c r="F3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G3" t="s">
-        <v>86</v>
+        <v>107</v>
       </c>
       <c r="H3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1104,19 +1629,19 @@
         <v>18</v>
       </c>
       <c r="D4" t="s">
-        <v>83</v>
+        <v>140</v>
       </c>
       <c r="E4" t="s">
-        <v>84</v>
+        <v>141</v>
       </c>
       <c r="F4" t="s">
         <v>23</v>
       </c>
       <c r="G4" t="s">
-        <v>87</v>
+        <v>142</v>
       </c>
       <c r="H4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1130,19 +1655,19 @@
         <v>18</v>
       </c>
       <c r="D5" t="s">
-        <v>83</v>
+        <v>140</v>
       </c>
       <c r="E5" t="s">
-        <v>84</v>
+        <v>141</v>
       </c>
       <c r="F5" t="s">
         <v>25</v>
       </c>
       <c r="G5" t="s">
-        <v>88</v>
+        <v>143</v>
       </c>
       <c r="H5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1150,25 +1675,25 @@
         <v>16</v>
       </c>
       <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" t="s">
+        <v>140</v>
+      </c>
+      <c r="E6" t="s">
+        <v>141</v>
+      </c>
+      <c r="F6" t="s">
         <v>27</v>
       </c>
-      <c r="C6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D6" t="s">
-        <v>83</v>
-      </c>
-      <c r="E6" t="s">
-        <v>84</v>
-      </c>
-      <c r="F6" t="s">
-        <v>29</v>
-      </c>
       <c r="G6" t="s">
-        <v>89</v>
+        <v>142</v>
       </c>
       <c r="H6" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1176,25 +1701,259 @@
         <v>16</v>
       </c>
       <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" t="s">
+        <v>140</v>
+      </c>
+      <c r="E7" t="s">
+        <v>141</v>
+      </c>
+      <c r="F7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7" t="s">
+        <v>142</v>
+      </c>
+      <c r="H7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" t="s">
+        <v>140</v>
+      </c>
+      <c r="E8" t="s">
+        <v>141</v>
+      </c>
+      <c r="F8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" t="s">
+        <v>144</v>
+      </c>
+      <c r="H8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" t="s">
+        <v>140</v>
+      </c>
+      <c r="E9" t="s">
+        <v>141</v>
+      </c>
+      <c r="F9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9" t="s">
+        <v>145</v>
+      </c>
+      <c r="H9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" t="s">
+        <v>140</v>
+      </c>
+      <c r="E10" t="s">
+        <v>141</v>
+      </c>
+      <c r="F10" t="s">
+        <v>35</v>
+      </c>
+      <c r="G10" t="s">
+        <v>146</v>
+      </c>
+      <c r="H10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" t="s">
+        <v>140</v>
+      </c>
+      <c r="E11" t="s">
+        <v>141</v>
+      </c>
+      <c r="F11" t="s">
+        <v>37</v>
+      </c>
+      <c r="G11" t="s">
+        <v>147</v>
+      </c>
+      <c r="H11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" t="s">
+        <v>140</v>
+      </c>
+      <c r="E12" t="s">
+        <v>141</v>
+      </c>
+      <c r="F12" t="s">
+        <v>25</v>
+      </c>
+      <c r="G12" t="s">
+        <v>148</v>
+      </c>
+      <c r="H12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" t="s">
+        <v>140</v>
+      </c>
+      <c r="E13" t="s">
+        <v>141</v>
+      </c>
+      <c r="F13" t="s">
         <v>27</v>
       </c>
-      <c r="C7" t="s">
-        <v>28</v>
-      </c>
-      <c r="D7" t="s">
-        <v>83</v>
-      </c>
-      <c r="E7" t="s">
-        <v>84</v>
-      </c>
-      <c r="F7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G7" t="s">
-        <v>89</v>
-      </c>
-      <c r="H7" t="s">
-        <v>31</v>
+      <c r="G13" t="s">
+        <v>149</v>
+      </c>
+      <c r="H13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" t="s">
+        <v>140</v>
+      </c>
+      <c r="E14" t="s">
+        <v>141</v>
+      </c>
+      <c r="F14" t="s">
+        <v>29</v>
+      </c>
+      <c r="G14" t="s">
+        <v>150</v>
+      </c>
+      <c r="H14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" t="s">
+        <v>140</v>
+      </c>
+      <c r="E15" t="s">
+        <v>141</v>
+      </c>
+      <c r="F15" t="s">
+        <v>42</v>
+      </c>
+      <c r="G15" t="s">
+        <v>151</v>
+      </c>
+      <c r="H15" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" t="s">
+        <v>140</v>
+      </c>
+      <c r="E16" t="s">
+        <v>141</v>
+      </c>
+      <c r="F16" t="s">
+        <v>43</v>
+      </c>
+      <c r="G16" t="s">
+        <v>152</v>
+      </c>
+      <c r="H16" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -1204,7 +1963,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1247,19 +2006,19 @@
         <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>90</v>
+        <v>153</v>
       </c>
       <c r="E2" t="s">
-        <v>91</v>
+        <v>154</v>
       </c>
       <c r="F2" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G2" t="s">
-        <v>92</v>
+        <v>26</v>
       </c>
       <c r="H2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1273,19 +2032,19 @@
         <v>18</v>
       </c>
       <c r="D3" t="s">
-        <v>90</v>
+        <v>153</v>
       </c>
       <c r="E3" t="s">
-        <v>91</v>
+        <v>154</v>
       </c>
       <c r="F3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G3" t="s">
-        <v>93</v>
+        <v>26</v>
       </c>
       <c r="H3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1299,19 +2058,19 @@
         <v>18</v>
       </c>
       <c r="D4" t="s">
-        <v>90</v>
+        <v>153</v>
       </c>
       <c r="E4" t="s">
-        <v>91</v>
+        <v>154</v>
       </c>
       <c r="F4" t="s">
         <v>23</v>
       </c>
       <c r="G4" t="s">
-        <v>94</v>
+        <v>108</v>
       </c>
       <c r="H4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1325,19 +2084,19 @@
         <v>18</v>
       </c>
       <c r="D5" t="s">
-        <v>90</v>
+        <v>153</v>
       </c>
       <c r="E5" t="s">
-        <v>91</v>
+        <v>154</v>
       </c>
       <c r="F5" t="s">
         <v>25</v>
       </c>
       <c r="G5" t="s">
-        <v>95</v>
+        <v>20</v>
       </c>
       <c r="H5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1345,25 +2104,25 @@
         <v>16</v>
       </c>
       <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" t="s">
+        <v>153</v>
+      </c>
+      <c r="E6" t="s">
+        <v>154</v>
+      </c>
+      <c r="F6" t="s">
         <v>27</v>
       </c>
-      <c r="C6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D6" t="s">
-        <v>90</v>
-      </c>
-      <c r="E6" t="s">
-        <v>91</v>
-      </c>
-      <c r="F6" t="s">
-        <v>29</v>
-      </c>
       <c r="G6" t="s">
-        <v>96</v>
+        <v>26</v>
       </c>
       <c r="H6" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1371,25 +2130,259 @@
         <v>16</v>
       </c>
       <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" t="s">
+        <v>153</v>
+      </c>
+      <c r="E7" t="s">
+        <v>154</v>
+      </c>
+      <c r="F7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" t="s">
+        <v>153</v>
+      </c>
+      <c r="E8" t="s">
+        <v>154</v>
+      </c>
+      <c r="F8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" t="s">
+        <v>155</v>
+      </c>
+      <c r="H8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" t="s">
+        <v>153</v>
+      </c>
+      <c r="E9" t="s">
+        <v>154</v>
+      </c>
+      <c r="F9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9" t="s">
+        <v>156</v>
+      </c>
+      <c r="H9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" t="s">
+        <v>153</v>
+      </c>
+      <c r="E10" t="s">
+        <v>154</v>
+      </c>
+      <c r="F10" t="s">
+        <v>35</v>
+      </c>
+      <c r="G10" t="s">
+        <v>157</v>
+      </c>
+      <c r="H10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" t="s">
+        <v>153</v>
+      </c>
+      <c r="E11" t="s">
+        <v>154</v>
+      </c>
+      <c r="F11" t="s">
+        <v>37</v>
+      </c>
+      <c r="G11" t="s">
+        <v>158</v>
+      </c>
+      <c r="H11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" t="s">
+        <v>153</v>
+      </c>
+      <c r="E12" t="s">
+        <v>154</v>
+      </c>
+      <c r="F12" t="s">
+        <v>25</v>
+      </c>
+      <c r="G12" t="s">
+        <v>159</v>
+      </c>
+      <c r="H12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" t="s">
+        <v>153</v>
+      </c>
+      <c r="E13" t="s">
+        <v>154</v>
+      </c>
+      <c r="F13" t="s">
         <v>27</v>
       </c>
-      <c r="C7" t="s">
-        <v>28</v>
-      </c>
-      <c r="D7" t="s">
-        <v>90</v>
-      </c>
-      <c r="E7" t="s">
-        <v>91</v>
-      </c>
-      <c r="F7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G7" t="s">
-        <v>96</v>
-      </c>
-      <c r="H7" t="s">
-        <v>31</v>
+      <c r="G13" t="s">
+        <v>160</v>
+      </c>
+      <c r="H13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" t="s">
+        <v>153</v>
+      </c>
+      <c r="E14" t="s">
+        <v>154</v>
+      </c>
+      <c r="F14" t="s">
+        <v>29</v>
+      </c>
+      <c r="G14" t="s">
+        <v>161</v>
+      </c>
+      <c r="H14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" t="s">
+        <v>153</v>
+      </c>
+      <c r="E15" t="s">
+        <v>154</v>
+      </c>
+      <c r="F15" t="s">
+        <v>42</v>
+      </c>
+      <c r="G15" t="s">
+        <v>162</v>
+      </c>
+      <c r="H15" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" t="s">
+        <v>153</v>
+      </c>
+      <c r="E16" t="s">
+        <v>154</v>
+      </c>
+      <c r="F16" t="s">
+        <v>43</v>
+      </c>
+      <c r="G16" t="s">
+        <v>163</v>
+      </c>
+      <c r="H16" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -1399,7 +2392,7 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1442,19 +2435,19 @@
         <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>97</v>
+        <v>164</v>
       </c>
       <c r="E2" t="s">
-        <v>98</v>
+        <v>165</v>
       </c>
       <c r="F2" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G2" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="H2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1468,19 +2461,19 @@
         <v>18</v>
       </c>
       <c r="D3" t="s">
-        <v>97</v>
+        <v>164</v>
       </c>
       <c r="E3" t="s">
-        <v>98</v>
+        <v>165</v>
       </c>
       <c r="F3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G3" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="H3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1494,19 +2487,19 @@
         <v>18</v>
       </c>
       <c r="D4" t="s">
-        <v>97</v>
+        <v>164</v>
       </c>
       <c r="E4" t="s">
-        <v>98</v>
+        <v>165</v>
       </c>
       <c r="F4" t="s">
         <v>23</v>
       </c>
       <c r="G4" t="s">
-        <v>101</v>
+        <v>166</v>
       </c>
       <c r="H4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1520,19 +2513,19 @@
         <v>18</v>
       </c>
       <c r="D5" t="s">
-        <v>97</v>
+        <v>164</v>
       </c>
       <c r="E5" t="s">
-        <v>98</v>
+        <v>165</v>
       </c>
       <c r="F5" t="s">
         <v>25</v>
       </c>
       <c r="G5" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="H5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1540,25 +2533,25 @@
         <v>16</v>
       </c>
       <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" t="s">
+        <v>164</v>
+      </c>
+      <c r="E6" t="s">
+        <v>165</v>
+      </c>
+      <c r="F6" t="s">
         <v>27</v>
       </c>
-      <c r="C6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D6" t="s">
-        <v>97</v>
-      </c>
-      <c r="E6" t="s">
-        <v>98</v>
-      </c>
-      <c r="F6" t="s">
-        <v>29</v>
-      </c>
       <c r="G6" t="s">
-        <v>103</v>
+        <v>143</v>
       </c>
       <c r="H6" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1566,25 +2559,259 @@
         <v>16</v>
       </c>
       <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" t="s">
+        <v>164</v>
+      </c>
+      <c r="E7" t="s">
+        <v>165</v>
+      </c>
+      <c r="F7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7" t="s">
+        <v>143</v>
+      </c>
+      <c r="H7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" t="s">
+        <v>164</v>
+      </c>
+      <c r="E8" t="s">
+        <v>165</v>
+      </c>
+      <c r="F8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" t="s">
+        <v>167</v>
+      </c>
+      <c r="H8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" t="s">
+        <v>164</v>
+      </c>
+      <c r="E9" t="s">
+        <v>165</v>
+      </c>
+      <c r="F9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9" t="s">
+        <v>168</v>
+      </c>
+      <c r="H9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" t="s">
+        <v>164</v>
+      </c>
+      <c r="E10" t="s">
+        <v>165</v>
+      </c>
+      <c r="F10" t="s">
+        <v>35</v>
+      </c>
+      <c r="G10" t="s">
+        <v>169</v>
+      </c>
+      <c r="H10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" t="s">
+        <v>164</v>
+      </c>
+      <c r="E11" t="s">
+        <v>165</v>
+      </c>
+      <c r="F11" t="s">
+        <v>37</v>
+      </c>
+      <c r="G11" t="s">
+        <v>170</v>
+      </c>
+      <c r="H11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" t="s">
+        <v>164</v>
+      </c>
+      <c r="E12" t="s">
+        <v>165</v>
+      </c>
+      <c r="F12" t="s">
+        <v>25</v>
+      </c>
+      <c r="G12" t="s">
+        <v>171</v>
+      </c>
+      <c r="H12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" t="s">
+        <v>164</v>
+      </c>
+      <c r="E13" t="s">
+        <v>165</v>
+      </c>
+      <c r="F13" t="s">
         <v>27</v>
       </c>
-      <c r="C7" t="s">
-        <v>28</v>
-      </c>
-      <c r="D7" t="s">
-        <v>97</v>
-      </c>
-      <c r="E7" t="s">
-        <v>98</v>
-      </c>
-      <c r="F7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G7" t="s">
-        <v>103</v>
-      </c>
-      <c r="H7" t="s">
-        <v>31</v>
+      <c r="G13" t="s">
+        <v>172</v>
+      </c>
+      <c r="H13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" t="s">
+        <v>164</v>
+      </c>
+      <c r="E14" t="s">
+        <v>165</v>
+      </c>
+      <c r="F14" t="s">
+        <v>29</v>
+      </c>
+      <c r="G14" t="s">
+        <v>137</v>
+      </c>
+      <c r="H14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" t="s">
+        <v>164</v>
+      </c>
+      <c r="E15" t="s">
+        <v>165</v>
+      </c>
+      <c r="F15" t="s">
+        <v>42</v>
+      </c>
+      <c r="G15" t="s">
+        <v>173</v>
+      </c>
+      <c r="H15" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" t="s">
+        <v>164</v>
+      </c>
+      <c r="E16" t="s">
+        <v>165</v>
+      </c>
+      <c r="F16" t="s">
+        <v>43</v>
+      </c>
+      <c r="G16" t="s">
+        <v>174</v>
+      </c>
+      <c r="H16" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -1594,7 +2821,7 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1637,19 +2864,19 @@
         <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>104</v>
+        <v>175</v>
       </c>
       <c r="E2" t="s">
-        <v>105</v>
+        <v>176</v>
       </c>
       <c r="F2" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G2" t="s">
-        <v>106</v>
+        <v>56</v>
       </c>
       <c r="H2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1663,19 +2890,19 @@
         <v>18</v>
       </c>
       <c r="D3" t="s">
-        <v>104</v>
+        <v>175</v>
       </c>
       <c r="E3" t="s">
-        <v>105</v>
+        <v>176</v>
       </c>
       <c r="F3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G3" t="s">
-        <v>107</v>
+        <v>56</v>
       </c>
       <c r="H3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1689,19 +2916,19 @@
         <v>18</v>
       </c>
       <c r="D4" t="s">
-        <v>104</v>
+        <v>175</v>
       </c>
       <c r="E4" t="s">
-        <v>105</v>
+        <v>176</v>
       </c>
       <c r="F4" t="s">
         <v>23</v>
       </c>
       <c r="G4" t="s">
-        <v>108</v>
+        <v>87</v>
       </c>
       <c r="H4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1715,19 +2942,19 @@
         <v>18</v>
       </c>
       <c r="D5" t="s">
-        <v>104</v>
+        <v>175</v>
       </c>
       <c r="E5" t="s">
-        <v>105</v>
+        <v>176</v>
       </c>
       <c r="F5" t="s">
         <v>25</v>
       </c>
       <c r="G5" t="s">
-        <v>109</v>
+        <v>28</v>
       </c>
       <c r="H5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1735,25 +2962,25 @@
         <v>16</v>
       </c>
       <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" t="s">
+        <v>175</v>
+      </c>
+      <c r="E6" t="s">
+        <v>176</v>
+      </c>
+      <c r="F6" t="s">
         <v>27</v>
       </c>
-      <c r="C6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D6" t="s">
-        <v>104</v>
-      </c>
-      <c r="E6" t="s">
-        <v>105</v>
-      </c>
-      <c r="F6" t="s">
-        <v>29</v>
-      </c>
       <c r="G6" t="s">
-        <v>70</v>
+        <v>177</v>
       </c>
       <c r="H6" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1761,25 +2988,259 @@
         <v>16</v>
       </c>
       <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" t="s">
+        <v>175</v>
+      </c>
+      <c r="E7" t="s">
+        <v>176</v>
+      </c>
+      <c r="F7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7" t="s">
+        <v>177</v>
+      </c>
+      <c r="H7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" t="s">
+        <v>175</v>
+      </c>
+      <c r="E8" t="s">
+        <v>176</v>
+      </c>
+      <c r="F8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" t="s">
+        <v>178</v>
+      </c>
+      <c r="H8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" t="s">
+        <v>175</v>
+      </c>
+      <c r="E9" t="s">
+        <v>176</v>
+      </c>
+      <c r="F9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9" t="s">
+        <v>179</v>
+      </c>
+      <c r="H9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" t="s">
+        <v>175</v>
+      </c>
+      <c r="E10" t="s">
+        <v>176</v>
+      </c>
+      <c r="F10" t="s">
+        <v>35</v>
+      </c>
+      <c r="G10" t="s">
+        <v>180</v>
+      </c>
+      <c r="H10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" t="s">
+        <v>175</v>
+      </c>
+      <c r="E11" t="s">
+        <v>176</v>
+      </c>
+      <c r="F11" t="s">
+        <v>37</v>
+      </c>
+      <c r="G11" t="s">
+        <v>181</v>
+      </c>
+      <c r="H11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" t="s">
+        <v>175</v>
+      </c>
+      <c r="E12" t="s">
+        <v>176</v>
+      </c>
+      <c r="F12" t="s">
+        <v>25</v>
+      </c>
+      <c r="G12" t="s">
+        <v>182</v>
+      </c>
+      <c r="H12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" t="s">
+        <v>175</v>
+      </c>
+      <c r="E13" t="s">
+        <v>176</v>
+      </c>
+      <c r="F13" t="s">
         <v>27</v>
       </c>
-      <c r="C7" t="s">
-        <v>28</v>
-      </c>
-      <c r="D7" t="s">
-        <v>104</v>
-      </c>
-      <c r="E7" t="s">
-        <v>105</v>
-      </c>
-      <c r="F7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G7" t="s">
-        <v>70</v>
-      </c>
-      <c r="H7" t="s">
-        <v>31</v>
+      <c r="G13" t="s">
+        <v>183</v>
+      </c>
+      <c r="H13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" t="s">
+        <v>175</v>
+      </c>
+      <c r="E14" t="s">
+        <v>176</v>
+      </c>
+      <c r="F14" t="s">
+        <v>29</v>
+      </c>
+      <c r="G14" t="s">
+        <v>184</v>
+      </c>
+      <c r="H14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" t="s">
+        <v>175</v>
+      </c>
+      <c r="E15" t="s">
+        <v>176</v>
+      </c>
+      <c r="F15" t="s">
+        <v>42</v>
+      </c>
+      <c r="G15" t="s">
+        <v>185</v>
+      </c>
+      <c r="H15" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" t="s">
+        <v>175</v>
+      </c>
+      <c r="E16" t="s">
+        <v>176</v>
+      </c>
+      <c r="F16" t="s">
+        <v>43</v>
+      </c>
+      <c r="G16" t="s">
+        <v>100</v>
+      </c>
+      <c r="H16" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -1789,7 +3250,7 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1832,19 +3293,19 @@
         <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>110</v>
+        <v>186</v>
       </c>
       <c r="E2" t="s">
-        <v>111</v>
+        <v>187</v>
       </c>
       <c r="F2" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G2" t="s">
-        <v>112</v>
+        <v>188</v>
       </c>
       <c r="H2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1858,19 +3319,19 @@
         <v>18</v>
       </c>
       <c r="D3" t="s">
-        <v>110</v>
+        <v>186</v>
       </c>
       <c r="E3" t="s">
-        <v>111</v>
+        <v>187</v>
       </c>
       <c r="F3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G3" t="s">
-        <v>113</v>
+        <v>188</v>
       </c>
       <c r="H3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1884,19 +3345,19 @@
         <v>18</v>
       </c>
       <c r="D4" t="s">
-        <v>110</v>
+        <v>186</v>
       </c>
       <c r="E4" t="s">
-        <v>111</v>
+        <v>187</v>
       </c>
       <c r="F4" t="s">
         <v>23</v>
       </c>
       <c r="G4" t="s">
-        <v>114</v>
+        <v>143</v>
       </c>
       <c r="H4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1910,19 +3371,19 @@
         <v>18</v>
       </c>
       <c r="D5" t="s">
-        <v>110</v>
+        <v>186</v>
       </c>
       <c r="E5" t="s">
-        <v>111</v>
+        <v>187</v>
       </c>
       <c r="F5" t="s">
         <v>25</v>
       </c>
       <c r="G5" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="H5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1930,25 +3391,25 @@
         <v>16</v>
       </c>
       <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" t="s">
+        <v>186</v>
+      </c>
+      <c r="E6" t="s">
+        <v>187</v>
+      </c>
+      <c r="F6" t="s">
         <v>27</v>
       </c>
-      <c r="C6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D6" t="s">
-        <v>110</v>
-      </c>
-      <c r="E6" t="s">
-        <v>111</v>
-      </c>
-      <c r="F6" t="s">
-        <v>29</v>
-      </c>
       <c r="G6" t="s">
-        <v>116</v>
+        <v>188</v>
       </c>
       <c r="H6" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1956,25 +3417,259 @@
         <v>16</v>
       </c>
       <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" t="s">
+        <v>186</v>
+      </c>
+      <c r="E7" t="s">
+        <v>187</v>
+      </c>
+      <c r="F7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7" t="s">
+        <v>188</v>
+      </c>
+      <c r="H7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" t="s">
+        <v>186</v>
+      </c>
+      <c r="E8" t="s">
+        <v>187</v>
+      </c>
+      <c r="F8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" t="s">
+        <v>189</v>
+      </c>
+      <c r="H8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" t="s">
+        <v>186</v>
+      </c>
+      <c r="E9" t="s">
+        <v>187</v>
+      </c>
+      <c r="F9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9" t="s">
+        <v>190</v>
+      </c>
+      <c r="H9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" t="s">
+        <v>186</v>
+      </c>
+      <c r="E10" t="s">
+        <v>187</v>
+      </c>
+      <c r="F10" t="s">
+        <v>35</v>
+      </c>
+      <c r="G10" t="s">
+        <v>191</v>
+      </c>
+      <c r="H10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" t="s">
+        <v>186</v>
+      </c>
+      <c r="E11" t="s">
+        <v>187</v>
+      </c>
+      <c r="F11" t="s">
+        <v>37</v>
+      </c>
+      <c r="G11" t="s">
+        <v>192</v>
+      </c>
+      <c r="H11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" t="s">
+        <v>186</v>
+      </c>
+      <c r="E12" t="s">
+        <v>187</v>
+      </c>
+      <c r="F12" t="s">
+        <v>25</v>
+      </c>
+      <c r="G12" t="s">
+        <v>193</v>
+      </c>
+      <c r="H12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" t="s">
+        <v>186</v>
+      </c>
+      <c r="E13" t="s">
+        <v>187</v>
+      </c>
+      <c r="F13" t="s">
         <v>27</v>
       </c>
-      <c r="C7" t="s">
-        <v>28</v>
-      </c>
-      <c r="D7" t="s">
-        <v>110</v>
-      </c>
-      <c r="E7" t="s">
-        <v>111</v>
-      </c>
-      <c r="F7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G7" t="s">
-        <v>116</v>
-      </c>
-      <c r="H7" t="s">
-        <v>31</v>
+      <c r="G13" t="s">
+        <v>194</v>
+      </c>
+      <c r="H13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" t="s">
+        <v>186</v>
+      </c>
+      <c r="E14" t="s">
+        <v>187</v>
+      </c>
+      <c r="F14" t="s">
+        <v>29</v>
+      </c>
+      <c r="G14" t="s">
+        <v>195</v>
+      </c>
+      <c r="H14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" t="s">
+        <v>186</v>
+      </c>
+      <c r="E15" t="s">
+        <v>187</v>
+      </c>
+      <c r="F15" t="s">
+        <v>42</v>
+      </c>
+      <c r="G15" t="s">
+        <v>196</v>
+      </c>
+      <c r="H15" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" t="s">
+        <v>186</v>
+      </c>
+      <c r="E16" t="s">
+        <v>187</v>
+      </c>
+      <c r="F16" t="s">
+        <v>43</v>
+      </c>
+      <c r="G16" t="s">
+        <v>197</v>
+      </c>
+      <c r="H16" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -1984,7 +3679,7 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2027,19 +3722,19 @@
         <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>117</v>
+        <v>198</v>
       </c>
       <c r="E2" t="s">
-        <v>118</v>
+        <v>199</v>
       </c>
       <c r="F2" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G2" t="s">
-        <v>119</v>
+        <v>56</v>
       </c>
       <c r="H2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -2053,19 +3748,19 @@
         <v>18</v>
       </c>
       <c r="D3" t="s">
-        <v>117</v>
+        <v>198</v>
       </c>
       <c r="E3" t="s">
-        <v>118</v>
+        <v>199</v>
       </c>
       <c r="F3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G3" t="s">
-        <v>120</v>
+        <v>56</v>
       </c>
       <c r="H3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -2079,19 +3774,19 @@
         <v>18</v>
       </c>
       <c r="D4" t="s">
-        <v>117</v>
+        <v>198</v>
       </c>
       <c r="E4" t="s">
-        <v>118</v>
+        <v>199</v>
       </c>
       <c r="F4" t="s">
         <v>23</v>
       </c>
       <c r="G4" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="H4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -2105,19 +3800,19 @@
         <v>18</v>
       </c>
       <c r="D5" t="s">
-        <v>117</v>
+        <v>198</v>
       </c>
       <c r="E5" t="s">
-        <v>118</v>
+        <v>199</v>
       </c>
       <c r="F5" t="s">
         <v>25</v>
       </c>
       <c r="G5" t="s">
-        <v>122</v>
+        <v>24</v>
       </c>
       <c r="H5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -2125,25 +3820,25 @@
         <v>16</v>
       </c>
       <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" t="s">
+        <v>198</v>
+      </c>
+      <c r="E6" t="s">
+        <v>199</v>
+      </c>
+      <c r="F6" t="s">
         <v>27</v>
       </c>
-      <c r="C6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D6" t="s">
-        <v>117</v>
-      </c>
-      <c r="E6" t="s">
-        <v>118</v>
-      </c>
-      <c r="F6" t="s">
-        <v>29</v>
-      </c>
       <c r="G6" t="s">
-        <v>70</v>
+        <v>108</v>
       </c>
       <c r="H6" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -2151,25 +3846,259 @@
         <v>16</v>
       </c>
       <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" t="s">
+        <v>198</v>
+      </c>
+      <c r="E7" t="s">
+        <v>199</v>
+      </c>
+      <c r="F7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7" t="s">
+        <v>108</v>
+      </c>
+      <c r="H7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" t="s">
+        <v>198</v>
+      </c>
+      <c r="E8" t="s">
+        <v>199</v>
+      </c>
+      <c r="F8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" t="s">
+        <v>200</v>
+      </c>
+      <c r="H8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" t="s">
+        <v>198</v>
+      </c>
+      <c r="E9" t="s">
+        <v>199</v>
+      </c>
+      <c r="F9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9" t="s">
+        <v>201</v>
+      </c>
+      <c r="H9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" t="s">
+        <v>198</v>
+      </c>
+      <c r="E10" t="s">
+        <v>199</v>
+      </c>
+      <c r="F10" t="s">
+        <v>35</v>
+      </c>
+      <c r="G10" t="s">
+        <v>202</v>
+      </c>
+      <c r="H10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" t="s">
+        <v>198</v>
+      </c>
+      <c r="E11" t="s">
+        <v>199</v>
+      </c>
+      <c r="F11" t="s">
+        <v>37</v>
+      </c>
+      <c r="G11" t="s">
+        <v>203</v>
+      </c>
+      <c r="H11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" t="s">
+        <v>198</v>
+      </c>
+      <c r="E12" t="s">
+        <v>199</v>
+      </c>
+      <c r="F12" t="s">
+        <v>25</v>
+      </c>
+      <c r="G12" t="s">
+        <v>204</v>
+      </c>
+      <c r="H12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" t="s">
+        <v>198</v>
+      </c>
+      <c r="E13" t="s">
+        <v>199</v>
+      </c>
+      <c r="F13" t="s">
         <v>27</v>
       </c>
-      <c r="C7" t="s">
-        <v>28</v>
-      </c>
-      <c r="D7" t="s">
-        <v>117</v>
-      </c>
-      <c r="E7" t="s">
-        <v>118</v>
-      </c>
-      <c r="F7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G7" t="s">
-        <v>70</v>
-      </c>
-      <c r="H7" t="s">
-        <v>31</v>
+      <c r="G13" t="s">
+        <v>205</v>
+      </c>
+      <c r="H13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" t="s">
+        <v>198</v>
+      </c>
+      <c r="E14" t="s">
+        <v>199</v>
+      </c>
+      <c r="F14" t="s">
+        <v>29</v>
+      </c>
+      <c r="G14" t="s">
+        <v>206</v>
+      </c>
+      <c r="H14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" t="s">
+        <v>198</v>
+      </c>
+      <c r="E15" t="s">
+        <v>199</v>
+      </c>
+      <c r="F15" t="s">
+        <v>42</v>
+      </c>
+      <c r="G15" t="s">
+        <v>207</v>
+      </c>
+      <c r="H15" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" t="s">
+        <v>198</v>
+      </c>
+      <c r="E16" t="s">
+        <v>199</v>
+      </c>
+      <c r="F16" t="s">
+        <v>43</v>
+      </c>
+      <c r="G16" t="s">
+        <v>208</v>
+      </c>
+      <c r="H16" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -2179,7 +4108,7 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2222,19 +4151,19 @@
         <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>123</v>
+        <v>209</v>
       </c>
       <c r="E2" t="s">
-        <v>124</v>
+        <v>210</v>
       </c>
       <c r="F2" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G2" t="s">
-        <v>125</v>
+        <v>108</v>
       </c>
       <c r="H2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -2248,19 +4177,19 @@
         <v>18</v>
       </c>
       <c r="D3" t="s">
-        <v>123</v>
+        <v>209</v>
       </c>
       <c r="E3" t="s">
-        <v>124</v>
+        <v>210</v>
       </c>
       <c r="F3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G3" t="s">
-        <v>126</v>
+        <v>108</v>
       </c>
       <c r="H3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -2274,19 +4203,19 @@
         <v>18</v>
       </c>
       <c r="D4" t="s">
-        <v>123</v>
+        <v>209</v>
       </c>
       <c r="E4" t="s">
-        <v>124</v>
+        <v>210</v>
       </c>
       <c r="F4" t="s">
         <v>23</v>
       </c>
       <c r="G4" t="s">
-        <v>127</v>
+        <v>28</v>
       </c>
       <c r="H4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -2300,19 +4229,19 @@
         <v>18</v>
       </c>
       <c r="D5" t="s">
-        <v>123</v>
+        <v>209</v>
       </c>
       <c r="E5" t="s">
-        <v>124</v>
+        <v>210</v>
       </c>
       <c r="F5" t="s">
         <v>25</v>
       </c>
       <c r="G5" t="s">
-        <v>128</v>
+        <v>56</v>
       </c>
       <c r="H5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -2320,25 +4249,25 @@
         <v>16</v>
       </c>
       <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" t="s">
+        <v>209</v>
+      </c>
+      <c r="E6" t="s">
+        <v>210</v>
+      </c>
+      <c r="F6" t="s">
         <v>27</v>
       </c>
-      <c r="C6" t="s">
+      <c r="G6" t="s">
         <v>28</v>
       </c>
-      <c r="D6" t="s">
-        <v>123</v>
-      </c>
-      <c r="E6" t="s">
-        <v>124</v>
-      </c>
-      <c r="F6" t="s">
-        <v>29</v>
-      </c>
-      <c r="G6" t="s">
-        <v>129</v>
-      </c>
       <c r="H6" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -2346,25 +4275,259 @@
         <v>16</v>
       </c>
       <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" t="s">
+        <v>209</v>
+      </c>
+      <c r="E7" t="s">
+        <v>210</v>
+      </c>
+      <c r="F7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" t="s">
+        <v>209</v>
+      </c>
+      <c r="E8" t="s">
+        <v>210</v>
+      </c>
+      <c r="F8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" t="s">
+        <v>211</v>
+      </c>
+      <c r="H8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" t="s">
+        <v>209</v>
+      </c>
+      <c r="E9" t="s">
+        <v>210</v>
+      </c>
+      <c r="F9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9" t="s">
+        <v>212</v>
+      </c>
+      <c r="H9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" t="s">
+        <v>209</v>
+      </c>
+      <c r="E10" t="s">
+        <v>210</v>
+      </c>
+      <c r="F10" t="s">
+        <v>35</v>
+      </c>
+      <c r="G10" t="s">
+        <v>213</v>
+      </c>
+      <c r="H10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" t="s">
+        <v>209</v>
+      </c>
+      <c r="E11" t="s">
+        <v>210</v>
+      </c>
+      <c r="F11" t="s">
+        <v>37</v>
+      </c>
+      <c r="G11" t="s">
+        <v>214</v>
+      </c>
+      <c r="H11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" t="s">
+        <v>209</v>
+      </c>
+      <c r="E12" t="s">
+        <v>210</v>
+      </c>
+      <c r="F12" t="s">
+        <v>25</v>
+      </c>
+      <c r="G12" t="s">
+        <v>215</v>
+      </c>
+      <c r="H12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" t="s">
+        <v>209</v>
+      </c>
+      <c r="E13" t="s">
+        <v>210</v>
+      </c>
+      <c r="F13" t="s">
         <v>27</v>
       </c>
-      <c r="C7" t="s">
-        <v>28</v>
-      </c>
-      <c r="D7" t="s">
-        <v>123</v>
-      </c>
-      <c r="E7" t="s">
-        <v>124</v>
-      </c>
-      <c r="F7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G7" t="s">
-        <v>129</v>
-      </c>
-      <c r="H7" t="s">
-        <v>31</v>
+      <c r="G13" t="s">
+        <v>216</v>
+      </c>
+      <c r="H13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" t="s">
+        <v>209</v>
+      </c>
+      <c r="E14" t="s">
+        <v>210</v>
+      </c>
+      <c r="F14" t="s">
+        <v>29</v>
+      </c>
+      <c r="G14" t="s">
+        <v>217</v>
+      </c>
+      <c r="H14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" t="s">
+        <v>209</v>
+      </c>
+      <c r="E15" t="s">
+        <v>210</v>
+      </c>
+      <c r="F15" t="s">
+        <v>42</v>
+      </c>
+      <c r="G15" t="s">
+        <v>218</v>
+      </c>
+      <c r="H15" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" t="s">
+        <v>209</v>
+      </c>
+      <c r="E16" t="s">
+        <v>210</v>
+      </c>
+      <c r="F16" t="s">
+        <v>43</v>
+      </c>
+      <c r="G16" t="s">
+        <v>219</v>
+      </c>
+      <c r="H16" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -2374,7 +4537,7 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2417,19 +4580,19 @@
         <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>130</v>
+        <v>220</v>
       </c>
       <c r="E2" t="s">
-        <v>131</v>
+        <v>221</v>
       </c>
       <c r="F2" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G2" t="s">
-        <v>132</v>
+        <v>28</v>
       </c>
       <c r="H2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -2443,19 +4606,19 @@
         <v>18</v>
       </c>
       <c r="D3" t="s">
-        <v>130</v>
+        <v>220</v>
       </c>
       <c r="E3" t="s">
-        <v>131</v>
+        <v>221</v>
       </c>
       <c r="F3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G3" t="s">
-        <v>133</v>
+        <v>28</v>
       </c>
       <c r="H3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -2469,19 +4632,19 @@
         <v>18</v>
       </c>
       <c r="D4" t="s">
-        <v>130</v>
+        <v>220</v>
       </c>
       <c r="E4" t="s">
-        <v>131</v>
+        <v>221</v>
       </c>
       <c r="F4" t="s">
         <v>23</v>
       </c>
       <c r="G4" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="H4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -2495,19 +4658,19 @@
         <v>18</v>
       </c>
       <c r="D5" t="s">
-        <v>130</v>
+        <v>220</v>
       </c>
       <c r="E5" t="s">
-        <v>131</v>
+        <v>221</v>
       </c>
       <c r="F5" t="s">
         <v>25</v>
       </c>
       <c r="G5" t="s">
-        <v>135</v>
+        <v>24</v>
       </c>
       <c r="H5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -2515,25 +4678,25 @@
         <v>16</v>
       </c>
       <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" t="s">
+        <v>220</v>
+      </c>
+      <c r="E6" t="s">
+        <v>221</v>
+      </c>
+      <c r="F6" t="s">
         <v>27</v>
       </c>
-      <c r="C6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D6" t="s">
-        <v>130</v>
-      </c>
-      <c r="E6" t="s">
-        <v>131</v>
-      </c>
-      <c r="F6" t="s">
-        <v>29</v>
-      </c>
       <c r="G6" t="s">
-        <v>136</v>
+        <v>26</v>
       </c>
       <c r="H6" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -2541,25 +4704,259 @@
         <v>16</v>
       </c>
       <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" t="s">
+        <v>220</v>
+      </c>
+      <c r="E7" t="s">
+        <v>221</v>
+      </c>
+      <c r="F7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" t="s">
+        <v>220</v>
+      </c>
+      <c r="E8" t="s">
+        <v>221</v>
+      </c>
+      <c r="F8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" t="s">
+        <v>222</v>
+      </c>
+      <c r="H8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" t="s">
+        <v>220</v>
+      </c>
+      <c r="E9" t="s">
+        <v>221</v>
+      </c>
+      <c r="F9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9" t="s">
+        <v>223</v>
+      </c>
+      <c r="H9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" t="s">
+        <v>220</v>
+      </c>
+      <c r="E10" t="s">
+        <v>221</v>
+      </c>
+      <c r="F10" t="s">
+        <v>35</v>
+      </c>
+      <c r="G10" t="s">
+        <v>224</v>
+      </c>
+      <c r="H10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" t="s">
+        <v>220</v>
+      </c>
+      <c r="E11" t="s">
+        <v>221</v>
+      </c>
+      <c r="F11" t="s">
+        <v>37</v>
+      </c>
+      <c r="G11" t="s">
+        <v>225</v>
+      </c>
+      <c r="H11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" t="s">
+        <v>220</v>
+      </c>
+      <c r="E12" t="s">
+        <v>221</v>
+      </c>
+      <c r="F12" t="s">
+        <v>25</v>
+      </c>
+      <c r="G12" t="s">
+        <v>226</v>
+      </c>
+      <c r="H12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" t="s">
+        <v>220</v>
+      </c>
+      <c r="E13" t="s">
+        <v>221</v>
+      </c>
+      <c r="F13" t="s">
         <v>27</v>
       </c>
-      <c r="C7" t="s">
-        <v>28</v>
-      </c>
-      <c r="D7" t="s">
-        <v>130</v>
-      </c>
-      <c r="E7" t="s">
-        <v>131</v>
-      </c>
-      <c r="F7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G7" t="s">
-        <v>136</v>
-      </c>
-      <c r="H7" t="s">
-        <v>31</v>
+      <c r="G13" t="s">
+        <v>227</v>
+      </c>
+      <c r="H13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" t="s">
+        <v>220</v>
+      </c>
+      <c r="E14" t="s">
+        <v>221</v>
+      </c>
+      <c r="F14" t="s">
+        <v>29</v>
+      </c>
+      <c r="G14" t="s">
+        <v>228</v>
+      </c>
+      <c r="H14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" t="s">
+        <v>220</v>
+      </c>
+      <c r="E15" t="s">
+        <v>221</v>
+      </c>
+      <c r="F15" t="s">
+        <v>42</v>
+      </c>
+      <c r="G15" t="s">
+        <v>229</v>
+      </c>
+      <c r="H15" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" t="s">
+        <v>220</v>
+      </c>
+      <c r="E16" t="s">
+        <v>221</v>
+      </c>
+      <c r="F16" t="s">
+        <v>43</v>
+      </c>
+      <c r="G16" t="s">
+        <v>230</v>
+      </c>
+      <c r="H16" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -2569,7 +4966,7 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2612,19 +5009,19 @@
         <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>137</v>
+        <v>231</v>
       </c>
       <c r="E2" t="s">
-        <v>138</v>
+        <v>232</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G2" t="s">
-        <v>139</v>
+        <v>107</v>
       </c>
       <c r="H2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -2638,19 +5035,19 @@
         <v>18</v>
       </c>
       <c r="D3" t="s">
-        <v>137</v>
+        <v>231</v>
       </c>
       <c r="E3" t="s">
-        <v>138</v>
+        <v>232</v>
       </c>
       <c r="F3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G3" t="s">
-        <v>140</v>
+        <v>107</v>
       </c>
       <c r="H3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -2664,19 +5061,19 @@
         <v>18</v>
       </c>
       <c r="D4" t="s">
-        <v>137</v>
+        <v>231</v>
       </c>
       <c r="E4" t="s">
-        <v>138</v>
+        <v>232</v>
       </c>
       <c r="F4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G4" t="s">
-        <v>141</v>
+        <v>87</v>
       </c>
       <c r="H4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -2684,25 +5081,25 @@
         <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" t="s">
+        <v>231</v>
+      </c>
+      <c r="E5" t="s">
+        <v>232</v>
+      </c>
+      <c r="F5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" t="s">
         <v>28</v>
       </c>
-      <c r="D5" t="s">
-        <v>137</v>
-      </c>
-      <c r="E5" t="s">
-        <v>138</v>
-      </c>
-      <c r="F5" t="s">
-        <v>29</v>
-      </c>
-      <c r="G5" t="s">
-        <v>89</v>
-      </c>
       <c r="H5" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -2710,25 +5107,259 @@
         <v>16</v>
       </c>
       <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" t="s">
+        <v>231</v>
+      </c>
+      <c r="E6" t="s">
+        <v>232</v>
+      </c>
+      <c r="F6" t="s">
         <v>27</v>
       </c>
-      <c r="C6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D6" t="s">
-        <v>137</v>
-      </c>
-      <c r="E6" t="s">
-        <v>138</v>
-      </c>
-      <c r="F6" t="s">
-        <v>21</v>
-      </c>
       <c r="G6" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="H6" t="s">
-        <v>31</v>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" t="s">
+        <v>231</v>
+      </c>
+      <c r="E7" t="s">
+        <v>232</v>
+      </c>
+      <c r="F7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7" t="s">
+        <v>87</v>
+      </c>
+      <c r="H7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" t="s">
+        <v>231</v>
+      </c>
+      <c r="E8" t="s">
+        <v>232</v>
+      </c>
+      <c r="F8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8" t="s">
+        <v>233</v>
+      </c>
+      <c r="H8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" t="s">
+        <v>231</v>
+      </c>
+      <c r="E9" t="s">
+        <v>232</v>
+      </c>
+      <c r="F9" t="s">
+        <v>35</v>
+      </c>
+      <c r="G9" t="s">
+        <v>234</v>
+      </c>
+      <c r="H9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" t="s">
+        <v>231</v>
+      </c>
+      <c r="E10" t="s">
+        <v>232</v>
+      </c>
+      <c r="F10" t="s">
+        <v>37</v>
+      </c>
+      <c r="G10" t="s">
+        <v>235</v>
+      </c>
+      <c r="H10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" t="s">
+        <v>231</v>
+      </c>
+      <c r="E11" t="s">
+        <v>232</v>
+      </c>
+      <c r="F11" t="s">
+        <v>25</v>
+      </c>
+      <c r="G11" t="s">
+        <v>235</v>
+      </c>
+      <c r="H11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" t="s">
+        <v>231</v>
+      </c>
+      <c r="E12" t="s">
+        <v>232</v>
+      </c>
+      <c r="F12" t="s">
+        <v>27</v>
+      </c>
+      <c r="G12" t="s">
+        <v>235</v>
+      </c>
+      <c r="H12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" t="s">
+        <v>231</v>
+      </c>
+      <c r="E13" t="s">
+        <v>232</v>
+      </c>
+      <c r="F13" t="s">
+        <v>29</v>
+      </c>
+      <c r="G13" t="s">
+        <v>236</v>
+      </c>
+      <c r="H13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" t="s">
+        <v>231</v>
+      </c>
+      <c r="E14" t="s">
+        <v>232</v>
+      </c>
+      <c r="F14" t="s">
+        <v>42</v>
+      </c>
+      <c r="G14" t="s">
+        <v>237</v>
+      </c>
+      <c r="H14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" t="s">
+        <v>231</v>
+      </c>
+      <c r="E15" t="s">
+        <v>232</v>
+      </c>
+      <c r="F15" t="s">
+        <v>43</v>
+      </c>
+      <c r="G15" t="s">
+        <v>238</v>
+      </c>
+      <c r="H15" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -2738,7 +5369,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2781,10 +5412,10 @@
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="E2" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="F2" t="s">
         <v>13</v>
@@ -2798,158 +5429,548 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="E3" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="G3" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="E4" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="F4" t="s">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="G4" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="H4" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="E5" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="F5" t="s">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="G5" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="H5" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="E6" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="F6" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="G6" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="E7" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="F7" t="s">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="G7" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="H7" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E8" t="s">
+        <v>46</v>
+      </c>
+      <c r="F8" t="s">
+        <v>42</v>
+      </c>
+      <c r="G8" t="s">
+        <v>54</v>
+      </c>
+      <c r="H8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" t="s">
+        <v>45</v>
+      </c>
+      <c r="E9" t="s">
+        <v>46</v>
+      </c>
+      <c r="F9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" t="s">
+        <v>55</v>
+      </c>
+      <c r="H9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" t="s">
+        <v>45</v>
+      </c>
+      <c r="E10" t="s">
+        <v>46</v>
+      </c>
+      <c r="F10" t="s">
+        <v>22</v>
+      </c>
+      <c r="G10" t="s">
+        <v>55</v>
+      </c>
+      <c r="H10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" t="s">
+        <v>45</v>
+      </c>
+      <c r="E11" t="s">
+        <v>46</v>
+      </c>
+      <c r="F11" t="s">
+        <v>23</v>
+      </c>
+      <c r="G11" t="s">
+        <v>26</v>
+      </c>
+      <c r="H11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" t="s">
+        <v>45</v>
+      </c>
+      <c r="E12" t="s">
+        <v>46</v>
+      </c>
+      <c r="F12" t="s">
+        <v>25</v>
+      </c>
+      <c r="G12" t="s">
+        <v>56</v>
+      </c>
+      <c r="H12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" t="s">
+        <v>45</v>
+      </c>
+      <c r="E13" t="s">
+        <v>46</v>
+      </c>
+      <c r="F13" t="s">
         <v>27</v>
       </c>
-      <c r="C8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8" t="s">
-        <v>32</v>
-      </c>
-      <c r="E8" t="s">
-        <v>33</v>
-      </c>
-      <c r="F8" t="s">
-        <v>21</v>
-      </c>
-      <c r="G8" t="s">
+      <c r="G13" t="s">
+        <v>56</v>
+      </c>
+      <c r="H13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" t="s">
+        <v>45</v>
+      </c>
+      <c r="E14" t="s">
+        <v>46</v>
+      </c>
+      <c r="F14" t="s">
+        <v>29</v>
+      </c>
+      <c r="G14" t="s">
+        <v>56</v>
+      </c>
+      <c r="H14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" t="s">
+        <v>45</v>
+      </c>
+      <c r="E15" t="s">
+        <v>46</v>
+      </c>
+      <c r="F15" t="s">
+        <v>13</v>
+      </c>
+      <c r="G15" t="s">
+        <v>57</v>
+      </c>
+      <c r="H15" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" t="s">
+        <v>45</v>
+      </c>
+      <c r="E16" t="s">
+        <v>46</v>
+      </c>
+      <c r="F16" t="s">
+        <v>22</v>
+      </c>
+      <c r="G16" t="s">
+        <v>58</v>
+      </c>
+      <c r="H16" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" t="s">
+        <v>45</v>
+      </c>
+      <c r="E17" t="s">
+        <v>46</v>
+      </c>
+      <c r="F17" t="s">
+        <v>35</v>
+      </c>
+      <c r="G17" t="s">
+        <v>59</v>
+      </c>
+      <c r="H17" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" t="s">
+        <v>31</v>
+      </c>
+      <c r="D18" t="s">
+        <v>45</v>
+      </c>
+      <c r="E18" t="s">
+        <v>46</v>
+      </c>
+      <c r="F18" t="s">
         <v>37</v>
       </c>
-      <c r="H8" t="s">
-        <v>31</v>
+      <c r="G18" t="s">
+        <v>59</v>
+      </c>
+      <c r="H18" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" t="s">
+        <v>31</v>
+      </c>
+      <c r="D19" t="s">
+        <v>45</v>
+      </c>
+      <c r="E19" t="s">
+        <v>46</v>
+      </c>
+      <c r="F19" t="s">
+        <v>25</v>
+      </c>
+      <c r="G19" t="s">
+        <v>59</v>
+      </c>
+      <c r="H19" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" t="s">
+        <v>16</v>
+      </c>
+      <c r="B20" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20" t="s">
+        <v>31</v>
+      </c>
+      <c r="D20" t="s">
+        <v>45</v>
+      </c>
+      <c r="E20" t="s">
+        <v>46</v>
+      </c>
+      <c r="F20" t="s">
+        <v>27</v>
+      </c>
+      <c r="G20" t="s">
+        <v>60</v>
+      </c>
+      <c r="H20" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" t="s">
+        <v>16</v>
+      </c>
+      <c r="B21" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21" t="s">
+        <v>31</v>
+      </c>
+      <c r="D21" t="s">
+        <v>45</v>
+      </c>
+      <c r="E21" t="s">
+        <v>46</v>
+      </c>
+      <c r="F21" t="s">
+        <v>29</v>
+      </c>
+      <c r="G21" t="s">
+        <v>61</v>
+      </c>
+      <c r="H21" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" t="s">
+        <v>16</v>
+      </c>
+      <c r="B22" t="s">
+        <v>30</v>
+      </c>
+      <c r="C22" t="s">
+        <v>31</v>
+      </c>
+      <c r="D22" t="s">
+        <v>45</v>
+      </c>
+      <c r="E22" t="s">
+        <v>46</v>
+      </c>
+      <c r="F22" t="s">
+        <v>42</v>
+      </c>
+      <c r="G22" t="s">
+        <v>62</v>
+      </c>
+      <c r="H22" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" t="s">
+        <v>16</v>
+      </c>
+      <c r="B23" t="s">
+        <v>30</v>
+      </c>
+      <c r="C23" t="s">
+        <v>31</v>
+      </c>
+      <c r="D23" t="s">
+        <v>45</v>
+      </c>
+      <c r="E23" t="s">
+        <v>46</v>
+      </c>
+      <c r="F23" t="s">
+        <v>43</v>
+      </c>
+      <c r="G23" t="s">
+        <v>63</v>
+      </c>
+      <c r="H23" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -2959,7 +5980,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3002,10 +6023,10 @@
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="E2" t="s">
-        <v>39</v>
+        <v>65</v>
       </c>
       <c r="F2" t="s">
         <v>13</v>
@@ -3028,19 +6049,19 @@
         <v>18</v>
       </c>
       <c r="D3" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="E3" t="s">
-        <v>39</v>
+        <v>65</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
+        <v>66</v>
       </c>
       <c r="G3" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="H3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -3054,19 +6075,19 @@
         <v>18</v>
       </c>
       <c r="D4" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="E4" t="s">
-        <v>39</v>
+        <v>65</v>
       </c>
       <c r="F4" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="G4" t="s">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="H4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -3080,19 +6101,19 @@
         <v>18</v>
       </c>
       <c r="D5" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="E5" t="s">
-        <v>39</v>
+        <v>65</v>
       </c>
       <c r="F5" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="G5" t="s">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="H5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -3106,19 +6127,19 @@
         <v>18</v>
       </c>
       <c r="D6" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="E6" t="s">
-        <v>39</v>
+        <v>65</v>
       </c>
       <c r="F6" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G6" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="H6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -3126,25 +6147,25 @@
         <v>16</v>
       </c>
       <c r="B7" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="D7" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="E7" t="s">
-        <v>39</v>
+        <v>65</v>
       </c>
       <c r="F7" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="G7" t="s">
         <v>14</v>
       </c>
       <c r="H7" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -3152,25 +6173,25 @@
         <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="C8" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="D8" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="E8" t="s">
-        <v>39</v>
+        <v>65</v>
       </c>
       <c r="F8" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="G8" t="s">
         <v>14</v>
       </c>
       <c r="H8" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -3178,25 +6199,25 @@
         <v>16</v>
       </c>
       <c r="B9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" t="s">
+        <v>64</v>
+      </c>
+      <c r="E9" t="s">
+        <v>65</v>
+      </c>
+      <c r="F9" t="s">
         <v>27</v>
-      </c>
-      <c r="C9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D9" t="s">
-        <v>38</v>
-      </c>
-      <c r="E9" t="s">
-        <v>39</v>
-      </c>
-      <c r="F9" t="s">
-        <v>29</v>
       </c>
       <c r="G9" t="s">
         <v>14</v>
       </c>
       <c r="H9" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -3204,25 +6225,259 @@
         <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="C10" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="D10" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="E10" t="s">
-        <v>39</v>
+        <v>65</v>
       </c>
       <c r="F10" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="G10" t="s">
         <v>14</v>
       </c>
       <c r="H10" t="s">
-        <v>31</v>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" t="s">
+        <v>64</v>
+      </c>
+      <c r="E11" t="s">
+        <v>65</v>
+      </c>
+      <c r="F11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" t="s">
+        <v>67</v>
+      </c>
+      <c r="H11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" t="s">
+        <v>64</v>
+      </c>
+      <c r="E12" t="s">
+        <v>65</v>
+      </c>
+      <c r="F12" t="s">
+        <v>22</v>
+      </c>
+      <c r="G12" t="s">
+        <v>68</v>
+      </c>
+      <c r="H12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" t="s">
+        <v>64</v>
+      </c>
+      <c r="E13" t="s">
+        <v>65</v>
+      </c>
+      <c r="F13" t="s">
+        <v>35</v>
+      </c>
+      <c r="G13" t="s">
+        <v>69</v>
+      </c>
+      <c r="H13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" t="s">
+        <v>64</v>
+      </c>
+      <c r="E14" t="s">
+        <v>65</v>
+      </c>
+      <c r="F14" t="s">
+        <v>37</v>
+      </c>
+      <c r="G14" t="s">
+        <v>70</v>
+      </c>
+      <c r="H14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" t="s">
+        <v>64</v>
+      </c>
+      <c r="E15" t="s">
+        <v>65</v>
+      </c>
+      <c r="F15" t="s">
+        <v>25</v>
+      </c>
+      <c r="G15" t="s">
+        <v>69</v>
+      </c>
+      <c r="H15" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" t="s">
+        <v>64</v>
+      </c>
+      <c r="E16" t="s">
+        <v>65</v>
+      </c>
+      <c r="F16" t="s">
+        <v>27</v>
+      </c>
+      <c r="G16" t="s">
+        <v>61</v>
+      </c>
+      <c r="H16" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" t="s">
+        <v>64</v>
+      </c>
+      <c r="E17" t="s">
+        <v>65</v>
+      </c>
+      <c r="F17" t="s">
+        <v>29</v>
+      </c>
+      <c r="G17" t="s">
+        <v>71</v>
+      </c>
+      <c r="H17" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" t="s">
+        <v>31</v>
+      </c>
+      <c r="D18" t="s">
+        <v>64</v>
+      </c>
+      <c r="E18" t="s">
+        <v>65</v>
+      </c>
+      <c r="F18" t="s">
+        <v>42</v>
+      </c>
+      <c r="G18" t="s">
+        <v>72</v>
+      </c>
+      <c r="H18" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" t="s">
+        <v>31</v>
+      </c>
+      <c r="D19" t="s">
+        <v>64</v>
+      </c>
+      <c r="E19" t="s">
+        <v>65</v>
+      </c>
+      <c r="F19" t="s">
+        <v>43</v>
+      </c>
+      <c r="G19" t="s">
+        <v>73</v>
+      </c>
+      <c r="H19" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -3232,7 +6487,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3275,10 +6530,10 @@
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>45</v>
+        <v>74</v>
       </c>
       <c r="E2" t="s">
-        <v>46</v>
+        <v>75</v>
       </c>
       <c r="F2" t="s">
         <v>13</v>
@@ -3301,19 +6556,19 @@
         <v>18</v>
       </c>
       <c r="D3" t="s">
-        <v>45</v>
+        <v>74</v>
       </c>
       <c r="E3" t="s">
-        <v>46</v>
+        <v>75</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G3" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="H3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -3327,19 +6582,19 @@
         <v>18</v>
       </c>
       <c r="D4" t="s">
-        <v>45</v>
+        <v>74</v>
       </c>
       <c r="E4" t="s">
-        <v>46</v>
+        <v>75</v>
       </c>
       <c r="F4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G4" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="H4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -3353,19 +6608,19 @@
         <v>18</v>
       </c>
       <c r="D5" t="s">
-        <v>45</v>
+        <v>74</v>
       </c>
       <c r="E5" t="s">
-        <v>46</v>
+        <v>75</v>
       </c>
       <c r="F5" t="s">
         <v>23</v>
       </c>
       <c r="G5" t="s">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="H5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -3379,19 +6634,19 @@
         <v>18</v>
       </c>
       <c r="D6" t="s">
-        <v>45</v>
+        <v>74</v>
       </c>
       <c r="E6" t="s">
-        <v>46</v>
+        <v>75</v>
       </c>
       <c r="F6" t="s">
         <v>25</v>
       </c>
       <c r="G6" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="H6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -3399,25 +6654,25 @@
         <v>16</v>
       </c>
       <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" t="s">
+        <v>74</v>
+      </c>
+      <c r="E7" t="s">
+        <v>75</v>
+      </c>
+      <c r="F7" t="s">
         <v>27</v>
       </c>
-      <c r="C7" t="s">
-        <v>28</v>
-      </c>
-      <c r="D7" t="s">
-        <v>45</v>
-      </c>
-      <c r="E7" t="s">
-        <v>46</v>
-      </c>
-      <c r="F7" t="s">
-        <v>29</v>
-      </c>
       <c r="G7" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="H7" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -3425,25 +6680,259 @@
         <v>16</v>
       </c>
       <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" t="s">
+        <v>74</v>
+      </c>
+      <c r="E8" t="s">
+        <v>75</v>
+      </c>
+      <c r="F8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G8" t="s">
+        <v>55</v>
+      </c>
+      <c r="H8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" t="s">
+        <v>74</v>
+      </c>
+      <c r="E9" t="s">
+        <v>75</v>
+      </c>
+      <c r="F9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" t="s">
+        <v>76</v>
+      </c>
+      <c r="H9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" t="s">
+        <v>74</v>
+      </c>
+      <c r="E10" t="s">
+        <v>75</v>
+      </c>
+      <c r="F10" t="s">
+        <v>22</v>
+      </c>
+      <c r="G10" t="s">
+        <v>77</v>
+      </c>
+      <c r="H10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" t="s">
+        <v>74</v>
+      </c>
+      <c r="E11" t="s">
+        <v>75</v>
+      </c>
+      <c r="F11" t="s">
+        <v>35</v>
+      </c>
+      <c r="G11" t="s">
+        <v>78</v>
+      </c>
+      <c r="H11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" t="s">
+        <v>74</v>
+      </c>
+      <c r="E12" t="s">
+        <v>75</v>
+      </c>
+      <c r="F12" t="s">
+        <v>37</v>
+      </c>
+      <c r="G12" t="s">
+        <v>79</v>
+      </c>
+      <c r="H12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" t="s">
+        <v>74</v>
+      </c>
+      <c r="E13" t="s">
+        <v>75</v>
+      </c>
+      <c r="F13" t="s">
+        <v>25</v>
+      </c>
+      <c r="G13" t="s">
+        <v>80</v>
+      </c>
+      <c r="H13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" t="s">
+        <v>74</v>
+      </c>
+      <c r="E14" t="s">
+        <v>75</v>
+      </c>
+      <c r="F14" t="s">
         <v>27</v>
       </c>
-      <c r="C8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8" t="s">
-        <v>45</v>
-      </c>
-      <c r="E8" t="s">
-        <v>46</v>
-      </c>
-      <c r="F8" t="s">
-        <v>21</v>
-      </c>
-      <c r="G8" t="s">
-        <v>51</v>
-      </c>
-      <c r="H8" t="s">
-        <v>31</v>
+      <c r="G14" t="s">
+        <v>81</v>
+      </c>
+      <c r="H14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" t="s">
+        <v>74</v>
+      </c>
+      <c r="E15" t="s">
+        <v>75</v>
+      </c>
+      <c r="F15" t="s">
+        <v>29</v>
+      </c>
+      <c r="G15" t="s">
+        <v>82</v>
+      </c>
+      <c r="H15" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" t="s">
+        <v>74</v>
+      </c>
+      <c r="E16" t="s">
+        <v>75</v>
+      </c>
+      <c r="F16" t="s">
+        <v>42</v>
+      </c>
+      <c r="G16" t="s">
+        <v>83</v>
+      </c>
+      <c r="H16" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" t="s">
+        <v>74</v>
+      </c>
+      <c r="E17" t="s">
+        <v>75</v>
+      </c>
+      <c r="F17" t="s">
+        <v>43</v>
+      </c>
+      <c r="G17" t="s">
+        <v>84</v>
+      </c>
+      <c r="H17" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -3453,7 +6942,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3496,10 +6985,10 @@
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>52</v>
+        <v>85</v>
       </c>
       <c r="E2" t="s">
-        <v>53</v>
+        <v>86</v>
       </c>
       <c r="F2" t="s">
         <v>13</v>
@@ -3522,19 +7011,19 @@
         <v>18</v>
       </c>
       <c r="D3" t="s">
-        <v>52</v>
+        <v>85</v>
       </c>
       <c r="E3" t="s">
-        <v>53</v>
+        <v>86</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G3" t="s">
-        <v>54</v>
+        <v>24</v>
       </c>
       <c r="H3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -3548,19 +7037,19 @@
         <v>18</v>
       </c>
       <c r="D4" t="s">
-        <v>52</v>
+        <v>85</v>
       </c>
       <c r="E4" t="s">
-        <v>53</v>
+        <v>86</v>
       </c>
       <c r="F4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G4" t="s">
-        <v>55</v>
+        <v>24</v>
       </c>
       <c r="H4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -3574,19 +7063,19 @@
         <v>18</v>
       </c>
       <c r="D5" t="s">
-        <v>52</v>
+        <v>85</v>
       </c>
       <c r="E5" t="s">
-        <v>53</v>
+        <v>86</v>
       </c>
       <c r="F5" t="s">
         <v>23</v>
       </c>
       <c r="G5" t="s">
-        <v>56</v>
+        <v>87</v>
       </c>
       <c r="H5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -3600,19 +7089,19 @@
         <v>18</v>
       </c>
       <c r="D6" t="s">
-        <v>52</v>
+        <v>85</v>
       </c>
       <c r="E6" t="s">
-        <v>53</v>
+        <v>86</v>
       </c>
       <c r="F6" t="s">
         <v>25</v>
       </c>
       <c r="G6" t="s">
-        <v>57</v>
+        <v>14</v>
       </c>
       <c r="H6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -3620,25 +7109,25 @@
         <v>16</v>
       </c>
       <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" t="s">
+        <v>85</v>
+      </c>
+      <c r="E7" t="s">
+        <v>86</v>
+      </c>
+      <c r="F7" t="s">
         <v>27</v>
       </c>
-      <c r="C7" t="s">
+      <c r="G7" t="s">
         <v>28</v>
       </c>
-      <c r="D7" t="s">
-        <v>52</v>
-      </c>
-      <c r="E7" t="s">
-        <v>53</v>
-      </c>
-      <c r="F7" t="s">
-        <v>29</v>
-      </c>
-      <c r="G7" t="s">
-        <v>51</v>
-      </c>
       <c r="H7" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -3646,25 +7135,259 @@
         <v>16</v>
       </c>
       <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" t="s">
+        <v>85</v>
+      </c>
+      <c r="E8" t="s">
+        <v>86</v>
+      </c>
+      <c r="F8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" t="s">
+        <v>85</v>
+      </c>
+      <c r="E9" t="s">
+        <v>86</v>
+      </c>
+      <c r="F9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" t="s">
+        <v>88</v>
+      </c>
+      <c r="H9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" t="s">
+        <v>85</v>
+      </c>
+      <c r="E10" t="s">
+        <v>86</v>
+      </c>
+      <c r="F10" t="s">
+        <v>22</v>
+      </c>
+      <c r="G10" t="s">
+        <v>89</v>
+      </c>
+      <c r="H10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" t="s">
+        <v>85</v>
+      </c>
+      <c r="E11" t="s">
+        <v>86</v>
+      </c>
+      <c r="F11" t="s">
+        <v>35</v>
+      </c>
+      <c r="G11" t="s">
+        <v>90</v>
+      </c>
+      <c r="H11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" t="s">
+        <v>85</v>
+      </c>
+      <c r="E12" t="s">
+        <v>86</v>
+      </c>
+      <c r="F12" t="s">
+        <v>37</v>
+      </c>
+      <c r="G12" t="s">
+        <v>91</v>
+      </c>
+      <c r="H12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" t="s">
+        <v>85</v>
+      </c>
+      <c r="E13" t="s">
+        <v>86</v>
+      </c>
+      <c r="F13" t="s">
+        <v>25</v>
+      </c>
+      <c r="G13" t="s">
+        <v>92</v>
+      </c>
+      <c r="H13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" t="s">
+        <v>85</v>
+      </c>
+      <c r="E14" t="s">
+        <v>86</v>
+      </c>
+      <c r="F14" t="s">
         <v>27</v>
       </c>
-      <c r="C8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8" t="s">
-        <v>52</v>
-      </c>
-      <c r="E8" t="s">
-        <v>53</v>
-      </c>
-      <c r="F8" t="s">
-        <v>21</v>
-      </c>
-      <c r="G8" t="s">
-        <v>51</v>
-      </c>
-      <c r="H8" t="s">
-        <v>31</v>
+      <c r="G14" t="s">
+        <v>93</v>
+      </c>
+      <c r="H14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" t="s">
+        <v>85</v>
+      </c>
+      <c r="E15" t="s">
+        <v>86</v>
+      </c>
+      <c r="F15" t="s">
+        <v>29</v>
+      </c>
+      <c r="G15" t="s">
+        <v>94</v>
+      </c>
+      <c r="H15" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" t="s">
+        <v>85</v>
+      </c>
+      <c r="E16" t="s">
+        <v>86</v>
+      </c>
+      <c r="F16" t="s">
+        <v>42</v>
+      </c>
+      <c r="G16" t="s">
+        <v>94</v>
+      </c>
+      <c r="H16" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" t="s">
+        <v>85</v>
+      </c>
+      <c r="E17" t="s">
+        <v>86</v>
+      </c>
+      <c r="F17" t="s">
+        <v>43</v>
+      </c>
+      <c r="G17" t="s">
+        <v>94</v>
+      </c>
+      <c r="H17" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -3674,7 +7397,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3717,19 +7440,19 @@
         <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>58</v>
+        <v>95</v>
       </c>
       <c r="E2" t="s">
-        <v>59</v>
+        <v>96</v>
       </c>
       <c r="F2" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G2" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="H2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -3743,19 +7466,19 @@
         <v>18</v>
       </c>
       <c r="D3" t="s">
-        <v>58</v>
+        <v>95</v>
       </c>
       <c r="E3" t="s">
-        <v>59</v>
+        <v>96</v>
       </c>
       <c r="F3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G3" t="s">
-        <v>61</v>
+        <v>20</v>
       </c>
       <c r="H3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -3769,19 +7492,19 @@
         <v>18</v>
       </c>
       <c r="D4" t="s">
-        <v>58</v>
+        <v>95</v>
       </c>
       <c r="E4" t="s">
-        <v>59</v>
+        <v>96</v>
       </c>
       <c r="F4" t="s">
         <v>23</v>
       </c>
       <c r="G4" t="s">
-        <v>62</v>
+        <v>20</v>
       </c>
       <c r="H4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -3795,19 +7518,19 @@
         <v>18</v>
       </c>
       <c r="D5" t="s">
-        <v>58</v>
+        <v>95</v>
       </c>
       <c r="E5" t="s">
-        <v>59</v>
+        <v>96</v>
       </c>
       <c r="F5" t="s">
         <v>25</v>
       </c>
       <c r="G5" t="s">
-        <v>63</v>
+        <v>14</v>
       </c>
       <c r="H5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -3815,25 +7538,25 @@
         <v>16</v>
       </c>
       <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" t="s">
+        <v>95</v>
+      </c>
+      <c r="E6" t="s">
+        <v>96</v>
+      </c>
+      <c r="F6" t="s">
         <v>27</v>
       </c>
-      <c r="C6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D6" t="s">
-        <v>58</v>
-      </c>
-      <c r="E6" t="s">
-        <v>59</v>
-      </c>
-      <c r="F6" t="s">
-        <v>29</v>
-      </c>
       <c r="G6" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H6" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -3841,25 +7564,259 @@
         <v>16</v>
       </c>
       <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" t="s">
+        <v>95</v>
+      </c>
+      <c r="E7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" t="s">
+        <v>95</v>
+      </c>
+      <c r="E8" t="s">
+        <v>96</v>
+      </c>
+      <c r="F8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" t="s">
+        <v>97</v>
+      </c>
+      <c r="H8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" t="s">
+        <v>95</v>
+      </c>
+      <c r="E9" t="s">
+        <v>96</v>
+      </c>
+      <c r="F9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9" t="s">
+        <v>98</v>
+      </c>
+      <c r="H9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" t="s">
+        <v>95</v>
+      </c>
+      <c r="E10" t="s">
+        <v>96</v>
+      </c>
+      <c r="F10" t="s">
+        <v>35</v>
+      </c>
+      <c r="G10" t="s">
+        <v>99</v>
+      </c>
+      <c r="H10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" t="s">
+        <v>95</v>
+      </c>
+      <c r="E11" t="s">
+        <v>96</v>
+      </c>
+      <c r="F11" t="s">
+        <v>37</v>
+      </c>
+      <c r="G11" t="s">
+        <v>100</v>
+      </c>
+      <c r="H11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" t="s">
+        <v>95</v>
+      </c>
+      <c r="E12" t="s">
+        <v>96</v>
+      </c>
+      <c r="F12" t="s">
+        <v>25</v>
+      </c>
+      <c r="G12" t="s">
+        <v>100</v>
+      </c>
+      <c r="H12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" t="s">
+        <v>95</v>
+      </c>
+      <c r="E13" t="s">
+        <v>96</v>
+      </c>
+      <c r="F13" t="s">
         <v>27</v>
       </c>
-      <c r="C7" t="s">
-        <v>28</v>
-      </c>
-      <c r="D7" t="s">
-        <v>58</v>
-      </c>
-      <c r="E7" t="s">
-        <v>59</v>
-      </c>
-      <c r="F7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H7" t="s">
-        <v>31</v>
+      <c r="G13" t="s">
+        <v>101</v>
+      </c>
+      <c r="H13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" t="s">
+        <v>95</v>
+      </c>
+      <c r="E14" t="s">
+        <v>96</v>
+      </c>
+      <c r="F14" t="s">
+        <v>29</v>
+      </c>
+      <c r="G14" t="s">
+        <v>102</v>
+      </c>
+      <c r="H14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" t="s">
+        <v>95</v>
+      </c>
+      <c r="E15" t="s">
+        <v>96</v>
+      </c>
+      <c r="F15" t="s">
+        <v>42</v>
+      </c>
+      <c r="G15" t="s">
+        <v>103</v>
+      </c>
+      <c r="H15" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" t="s">
+        <v>95</v>
+      </c>
+      <c r="E16" t="s">
+        <v>96</v>
+      </c>
+      <c r="F16" t="s">
+        <v>43</v>
+      </c>
+      <c r="G16" t="s">
+        <v>104</v>
+      </c>
+      <c r="H16" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -3869,7 +7826,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3912,19 +7869,19 @@
         <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>64</v>
+        <v>105</v>
       </c>
       <c r="E2" t="s">
-        <v>65</v>
+        <v>106</v>
       </c>
       <c r="F2" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G2" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="H2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -3938,19 +7895,19 @@
         <v>18</v>
       </c>
       <c r="D3" t="s">
-        <v>64</v>
+        <v>105</v>
       </c>
       <c r="E3" t="s">
-        <v>65</v>
+        <v>106</v>
       </c>
       <c r="F3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G3" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="H3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -3964,19 +7921,19 @@
         <v>18</v>
       </c>
       <c r="D4" t="s">
-        <v>64</v>
+        <v>105</v>
       </c>
       <c r="E4" t="s">
-        <v>65</v>
+        <v>106</v>
       </c>
       <c r="F4" t="s">
         <v>23</v>
       </c>
       <c r="G4" t="s">
-        <v>68</v>
+        <v>107</v>
       </c>
       <c r="H4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -3990,19 +7947,19 @@
         <v>18</v>
       </c>
       <c r="D5" t="s">
-        <v>64</v>
+        <v>105</v>
       </c>
       <c r="E5" t="s">
-        <v>65</v>
+        <v>106</v>
       </c>
       <c r="F5" t="s">
         <v>25</v>
       </c>
       <c r="G5" t="s">
-        <v>69</v>
+        <v>26</v>
       </c>
       <c r="H5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -4010,25 +7967,25 @@
         <v>16</v>
       </c>
       <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" t="s">
+        <v>105</v>
+      </c>
+      <c r="E6" t="s">
+        <v>106</v>
+      </c>
+      <c r="F6" t="s">
         <v>27</v>
       </c>
-      <c r="C6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D6" t="s">
-        <v>64</v>
-      </c>
-      <c r="E6" t="s">
-        <v>65</v>
-      </c>
-      <c r="F6" t="s">
-        <v>29</v>
-      </c>
       <c r="G6" t="s">
-        <v>70</v>
+        <v>108</v>
       </c>
       <c r="H6" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -4036,25 +7993,259 @@
         <v>16</v>
       </c>
       <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" t="s">
+        <v>105</v>
+      </c>
+      <c r="E7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7" t="s">
+        <v>108</v>
+      </c>
+      <c r="H7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" t="s">
+        <v>105</v>
+      </c>
+      <c r="E8" t="s">
+        <v>106</v>
+      </c>
+      <c r="F8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" t="s">
+        <v>109</v>
+      </c>
+      <c r="H8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" t="s">
+        <v>105</v>
+      </c>
+      <c r="E9" t="s">
+        <v>106</v>
+      </c>
+      <c r="F9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9" t="s">
+        <v>110</v>
+      </c>
+      <c r="H9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" t="s">
+        <v>105</v>
+      </c>
+      <c r="E10" t="s">
+        <v>106</v>
+      </c>
+      <c r="F10" t="s">
+        <v>35</v>
+      </c>
+      <c r="G10" t="s">
+        <v>111</v>
+      </c>
+      <c r="H10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" t="s">
+        <v>105</v>
+      </c>
+      <c r="E11" t="s">
+        <v>106</v>
+      </c>
+      <c r="F11" t="s">
+        <v>37</v>
+      </c>
+      <c r="G11" t="s">
+        <v>112</v>
+      </c>
+      <c r="H11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" t="s">
+        <v>105</v>
+      </c>
+      <c r="E12" t="s">
+        <v>106</v>
+      </c>
+      <c r="F12" t="s">
+        <v>25</v>
+      </c>
+      <c r="G12" t="s">
+        <v>113</v>
+      </c>
+      <c r="H12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" t="s">
+        <v>105</v>
+      </c>
+      <c r="E13" t="s">
+        <v>106</v>
+      </c>
+      <c r="F13" t="s">
         <v>27</v>
       </c>
-      <c r="C7" t="s">
-        <v>28</v>
-      </c>
-      <c r="D7" t="s">
-        <v>64</v>
-      </c>
-      <c r="E7" t="s">
-        <v>65</v>
-      </c>
-      <c r="F7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G7" t="s">
-        <v>70</v>
-      </c>
-      <c r="H7" t="s">
-        <v>31</v>
+      <c r="G13" t="s">
+        <v>114</v>
+      </c>
+      <c r="H13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" t="s">
+        <v>105</v>
+      </c>
+      <c r="E14" t="s">
+        <v>106</v>
+      </c>
+      <c r="F14" t="s">
+        <v>29</v>
+      </c>
+      <c r="G14" t="s">
+        <v>115</v>
+      </c>
+      <c r="H14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" t="s">
+        <v>105</v>
+      </c>
+      <c r="E15" t="s">
+        <v>106</v>
+      </c>
+      <c r="F15" t="s">
+        <v>42</v>
+      </c>
+      <c r="G15" t="s">
+        <v>116</v>
+      </c>
+      <c r="H15" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" t="s">
+        <v>105</v>
+      </c>
+      <c r="E16" t="s">
+        <v>106</v>
+      </c>
+      <c r="F16" t="s">
+        <v>43</v>
+      </c>
+      <c r="G16" t="s">
+        <v>117</v>
+      </c>
+      <c r="H16" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -4064,7 +8255,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4107,19 +8298,19 @@
         <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>71</v>
+        <v>118</v>
       </c>
       <c r="E2" t="s">
-        <v>72</v>
+        <v>119</v>
       </c>
       <c r="F2" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G2" t="s">
-        <v>73</v>
+        <v>24</v>
       </c>
       <c r="H2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -4133,19 +8324,19 @@
         <v>18</v>
       </c>
       <c r="D3" t="s">
-        <v>71</v>
+        <v>118</v>
       </c>
       <c r="E3" t="s">
-        <v>72</v>
+        <v>119</v>
       </c>
       <c r="F3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G3" t="s">
-        <v>74</v>
+        <v>24</v>
       </c>
       <c r="H3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -4159,19 +8350,19 @@
         <v>18</v>
       </c>
       <c r="D4" t="s">
-        <v>71</v>
+        <v>118</v>
       </c>
       <c r="E4" t="s">
-        <v>72</v>
+        <v>119</v>
       </c>
       <c r="F4" t="s">
         <v>23</v>
       </c>
       <c r="G4" t="s">
-        <v>75</v>
+        <v>108</v>
       </c>
       <c r="H4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -4185,19 +8376,19 @@
         <v>18</v>
       </c>
       <c r="D5" t="s">
-        <v>71</v>
+        <v>118</v>
       </c>
       <c r="E5" t="s">
-        <v>72</v>
+        <v>119</v>
       </c>
       <c r="F5" t="s">
         <v>25</v>
       </c>
       <c r="G5" t="s">
-        <v>76</v>
+        <v>56</v>
       </c>
       <c r="H5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -4205,25 +8396,25 @@
         <v>16</v>
       </c>
       <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" t="s">
+        <v>118</v>
+      </c>
+      <c r="E6" t="s">
+        <v>119</v>
+      </c>
+      <c r="F6" t="s">
         <v>27</v>
       </c>
-      <c r="C6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D6" t="s">
-        <v>71</v>
-      </c>
-      <c r="E6" t="s">
-        <v>72</v>
-      </c>
-      <c r="F6" t="s">
-        <v>29</v>
-      </c>
       <c r="G6" t="s">
-        <v>51</v>
+        <v>108</v>
       </c>
       <c r="H6" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -4231,25 +8422,259 @@
         <v>16</v>
       </c>
       <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" t="s">
+        <v>118</v>
+      </c>
+      <c r="E7" t="s">
+        <v>119</v>
+      </c>
+      <c r="F7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7" t="s">
+        <v>108</v>
+      </c>
+      <c r="H7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" t="s">
+        <v>118</v>
+      </c>
+      <c r="E8" t="s">
+        <v>119</v>
+      </c>
+      <c r="F8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" t="s">
+        <v>120</v>
+      </c>
+      <c r="H8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" t="s">
+        <v>118</v>
+      </c>
+      <c r="E9" t="s">
+        <v>119</v>
+      </c>
+      <c r="F9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9" t="s">
+        <v>121</v>
+      </c>
+      <c r="H9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" t="s">
+        <v>118</v>
+      </c>
+      <c r="E10" t="s">
+        <v>119</v>
+      </c>
+      <c r="F10" t="s">
+        <v>35</v>
+      </c>
+      <c r="G10" t="s">
+        <v>122</v>
+      </c>
+      <c r="H10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" t="s">
+        <v>118</v>
+      </c>
+      <c r="E11" t="s">
+        <v>119</v>
+      </c>
+      <c r="F11" t="s">
+        <v>37</v>
+      </c>
+      <c r="G11" t="s">
+        <v>123</v>
+      </c>
+      <c r="H11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" t="s">
+        <v>118</v>
+      </c>
+      <c r="E12" t="s">
+        <v>119</v>
+      </c>
+      <c r="F12" t="s">
+        <v>25</v>
+      </c>
+      <c r="G12" t="s">
+        <v>124</v>
+      </c>
+      <c r="H12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" t="s">
+        <v>118</v>
+      </c>
+      <c r="E13" t="s">
+        <v>119</v>
+      </c>
+      <c r="F13" t="s">
         <v>27</v>
       </c>
-      <c r="C7" t="s">
-        <v>28</v>
-      </c>
-      <c r="D7" t="s">
-        <v>71</v>
-      </c>
-      <c r="E7" t="s">
-        <v>72</v>
-      </c>
-      <c r="F7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G7" t="s">
-        <v>51</v>
-      </c>
-      <c r="H7" t="s">
-        <v>31</v>
+      <c r="G13" t="s">
+        <v>125</v>
+      </c>
+      <c r="H13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" t="s">
+        <v>118</v>
+      </c>
+      <c r="E14" t="s">
+        <v>119</v>
+      </c>
+      <c r="F14" t="s">
+        <v>29</v>
+      </c>
+      <c r="G14" t="s">
+        <v>126</v>
+      </c>
+      <c r="H14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" t="s">
+        <v>118</v>
+      </c>
+      <c r="E15" t="s">
+        <v>119</v>
+      </c>
+      <c r="F15" t="s">
+        <v>42</v>
+      </c>
+      <c r="G15" t="s">
+        <v>127</v>
+      </c>
+      <c r="H15" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" t="s">
+        <v>118</v>
+      </c>
+      <c r="E16" t="s">
+        <v>119</v>
+      </c>
+      <c r="F16" t="s">
+        <v>43</v>
+      </c>
+      <c r="G16" t="s">
+        <v>128</v>
+      </c>
+      <c r="H16" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -4259,7 +8684,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4302,19 +8727,19 @@
         <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>77</v>
+        <v>129</v>
       </c>
       <c r="E2" t="s">
-        <v>78</v>
+        <v>130</v>
       </c>
       <c r="F2" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G2" t="s">
-        <v>79</v>
+        <v>24</v>
       </c>
       <c r="H2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -4328,19 +8753,19 @@
         <v>18</v>
       </c>
       <c r="D3" t="s">
-        <v>77</v>
+        <v>129</v>
       </c>
       <c r="E3" t="s">
-        <v>78</v>
+        <v>130</v>
       </c>
       <c r="F3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G3" t="s">
-        <v>80</v>
+        <v>24</v>
       </c>
       <c r="H3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -4354,19 +8779,19 @@
         <v>18</v>
       </c>
       <c r="D4" t="s">
-        <v>77</v>
+        <v>129</v>
       </c>
       <c r="E4" t="s">
-        <v>78</v>
+        <v>130</v>
       </c>
       <c r="F4" t="s">
         <v>23</v>
       </c>
       <c r="G4" t="s">
-        <v>81</v>
+        <v>26</v>
       </c>
       <c r="H4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -4380,19 +8805,19 @@
         <v>18</v>
       </c>
       <c r="D5" t="s">
-        <v>77</v>
+        <v>129</v>
       </c>
       <c r="E5" t="s">
-        <v>78</v>
+        <v>130</v>
       </c>
       <c r="F5" t="s">
         <v>25</v>
       </c>
       <c r="G5" t="s">
-        <v>82</v>
+        <v>28</v>
       </c>
       <c r="H5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -4400,25 +8825,25 @@
         <v>16</v>
       </c>
       <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" t="s">
+        <v>129</v>
+      </c>
+      <c r="E6" t="s">
+        <v>130</v>
+      </c>
+      <c r="F6" t="s">
         <v>27</v>
       </c>
-      <c r="C6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D6" t="s">
-        <v>77</v>
-      </c>
-      <c r="E6" t="s">
-        <v>78</v>
-      </c>
-      <c r="F6" t="s">
-        <v>29</v>
-      </c>
       <c r="G6" t="s">
-        <v>51</v>
+        <v>107</v>
       </c>
       <c r="H6" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -4426,25 +8851,259 @@
         <v>16</v>
       </c>
       <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" t="s">
+        <v>129</v>
+      </c>
+      <c r="E7" t="s">
+        <v>130</v>
+      </c>
+      <c r="F7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7" t="s">
+        <v>107</v>
+      </c>
+      <c r="H7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" t="s">
+        <v>129</v>
+      </c>
+      <c r="E8" t="s">
+        <v>130</v>
+      </c>
+      <c r="F8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" t="s">
+        <v>131</v>
+      </c>
+      <c r="H8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" t="s">
+        <v>129</v>
+      </c>
+      <c r="E9" t="s">
+        <v>130</v>
+      </c>
+      <c r="F9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9" t="s">
+        <v>132</v>
+      </c>
+      <c r="H9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" t="s">
+        <v>129</v>
+      </c>
+      <c r="E10" t="s">
+        <v>130</v>
+      </c>
+      <c r="F10" t="s">
+        <v>35</v>
+      </c>
+      <c r="G10" t="s">
+        <v>133</v>
+      </c>
+      <c r="H10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" t="s">
+        <v>129</v>
+      </c>
+      <c r="E11" t="s">
+        <v>130</v>
+      </c>
+      <c r="F11" t="s">
+        <v>37</v>
+      </c>
+      <c r="G11" t="s">
+        <v>134</v>
+      </c>
+      <c r="H11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" t="s">
+        <v>129</v>
+      </c>
+      <c r="E12" t="s">
+        <v>130</v>
+      </c>
+      <c r="F12" t="s">
+        <v>25</v>
+      </c>
+      <c r="G12" t="s">
+        <v>135</v>
+      </c>
+      <c r="H12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" t="s">
+        <v>129</v>
+      </c>
+      <c r="E13" t="s">
+        <v>130</v>
+      </c>
+      <c r="F13" t="s">
         <v>27</v>
       </c>
-      <c r="C7" t="s">
-        <v>28</v>
-      </c>
-      <c r="D7" t="s">
-        <v>77</v>
-      </c>
-      <c r="E7" t="s">
-        <v>78</v>
-      </c>
-      <c r="F7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G7" t="s">
-        <v>51</v>
-      </c>
-      <c r="H7" t="s">
-        <v>31</v>
+      <c r="G13" t="s">
+        <v>136</v>
+      </c>
+      <c r="H13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" t="s">
+        <v>129</v>
+      </c>
+      <c r="E14" t="s">
+        <v>130</v>
+      </c>
+      <c r="F14" t="s">
+        <v>29</v>
+      </c>
+      <c r="G14" t="s">
+        <v>137</v>
+      </c>
+      <c r="H14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" t="s">
+        <v>129</v>
+      </c>
+      <c r="E15" t="s">
+        <v>130</v>
+      </c>
+      <c r="F15" t="s">
+        <v>42</v>
+      </c>
+      <c r="G15" t="s">
+        <v>138</v>
+      </c>
+      <c r="H15" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" t="s">
+        <v>129</v>
+      </c>
+      <c r="E16" t="s">
+        <v>130</v>
+      </c>
+      <c r="F16" t="s">
+        <v>43</v>
+      </c>
+      <c r="G16" t="s">
+        <v>139</v>
+      </c>
+      <c r="H16" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
